--- a/uploads/ejemplo_importacion_nomina.xlsx
+++ b/uploads/ejemplo_importacion_nomina.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="324">
   <si>
     <t>6443 - Sucursal Chivilcoy</t>
   </si>
@@ -986,10 +986,19 @@
     <t>category</t>
   </si>
   <si>
-    <t>TORRICELLI MARIA EUGENIAaaaaa</t>
-  </si>
-  <si>
-    <t>Gonza prueba</t>
+    <t>TORRICELLI MARIA EUGENIA</t>
+  </si>
+  <si>
+    <t>PruebaUno</t>
+  </si>
+  <si>
+    <t>PruebaDos</t>
+  </si>
+  <si>
+    <t>1111 - Sucursal testing</t>
+  </si>
+  <si>
+    <t>pruebaTres</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1343,7 +1352,7 @@
         <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1351,55 +1360,55 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2242</v>
+        <v>9999</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2285</v>
+        <v>8888</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>323</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2286</v>
+        <v>2242</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1407,13 +1416,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2340</v>
+        <v>2286</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1421,41 +1430,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2367</v>
+        <v>2288</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2389</v>
+        <v>2340</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2396</v>
+        <v>2367</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1463,13 +1472,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2400</v>
+        <v>2389</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1477,13 +1486,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2406</v>
+        <v>2396</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1491,69 +1500,69 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2446</v>
+        <v>2400</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2447</v>
+        <v>2406</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>5018</v>
+        <v>2446</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>5022</v>
+        <v>2447</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>5028</v>
+        <v>5018</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1561,13 +1570,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5055</v>
+        <v>5022</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1575,13 +1584,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5061</v>
+        <v>5028</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1589,13 +1598,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>5063</v>
+        <v>5055</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1603,83 +1612,83 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5070</v>
+        <v>5061</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>5071</v>
+        <v>5063</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>5085</v>
+        <v>5070</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>5088</v>
+        <v>5071</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>5089</v>
+        <v>5085</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>5090</v>
+        <v>5088</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1687,69 +1696,69 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5110</v>
+        <v>5089</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5123</v>
+        <v>5090</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>5124</v>
+        <v>5110</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>5126</v>
+        <v>5123</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>5133</v>
+        <v>5124</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1757,27 +1766,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>5136</v>
+        <v>5126</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>5138</v>
+        <v>5133</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1785,13 +1794,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5139</v>
+        <v>5136</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1799,13 +1808,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1813,13 +1822,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>5148</v>
+        <v>5139</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1827,69 +1836,69 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>5154</v>
+        <v>5140</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>5155</v>
+        <v>5148</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>5162</v>
+        <v>5154</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>5163</v>
+        <v>5155</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>5177</v>
+        <v>5162</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1897,27 +1906,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>5179</v>
+        <v>5163</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5183</v>
+        <v>5177</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -1925,13 +1934,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>5189</v>
+        <v>5179</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -1939,13 +1948,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>5190</v>
+        <v>5183</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -1953,27 +1962,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5191</v>
+        <v>5189</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>5192</v>
+        <v>5190</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -1981,41 +1990,41 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>5199</v>
+        <v>5191</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>5216</v>
+        <v>5192</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>5232</v>
+        <v>5199</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -2023,41 +2032,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>5233</v>
+        <v>5216</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>5236</v>
+        <v>5232</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>5237</v>
+        <v>5233</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -2065,10 +2074,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>5240</v>
+        <v>5236</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
         <v>90</v>
@@ -2079,69 +2088,69 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>5245</v>
+        <v>5237</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>5248</v>
+        <v>5240</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
         <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>5251</v>
+        <v>5248</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>5253</v>
+        <v>5250</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -2149,13 +2158,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>5258</v>
+        <v>5251</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -2163,97 +2172,97 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>5263</v>
+        <v>5253</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>5271</v>
+        <v>5258</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>5272</v>
+        <v>5263</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>5282</v>
+        <v>5271</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>5295</v>
+        <v>5272</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>5299</v>
+        <v>5282</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>5329</v>
+        <v>5295</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -2261,13 +2270,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>5350</v>
+        <v>5299</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -2275,41 +2284,41 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>5353</v>
+        <v>5329</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>5356</v>
+        <v>5350</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>5362</v>
+        <v>5353</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -2317,195 +2326,195 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>5374</v>
+        <v>5356</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>5380</v>
+        <v>5362</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>5392</v>
+        <v>5374</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>5399</v>
+        <v>5380</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>5400</v>
+        <v>5392</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>5412</v>
+        <v>5399</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>5429</v>
+        <v>5400</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>5455</v>
+        <v>5412</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>5464</v>
+        <v>5429</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>5484</v>
+        <v>5455</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>5487</v>
+        <v>5464</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>5488</v>
+        <v>5484</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>5490</v>
+        <v>5487</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
         <v>132</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>5493</v>
+        <v>5488</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -2513,13 +2522,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>5498</v>
+        <v>5490</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -2527,69 +2536,69 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>5502</v>
+        <v>5493</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>5517</v>
+        <v>5498</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>5520</v>
+        <v>5502</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>5524</v>
+        <v>5517</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>5533</v>
+        <v>5520</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -2597,27 +2606,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>5555</v>
+        <v>5524</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>5561</v>
+        <v>5533</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -2625,209 +2634,209 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>5562</v>
+        <v>5555</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>5563</v>
+        <v>5561</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>5564</v>
+        <v>5562</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>5565</v>
+        <v>5563</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
         <v>151</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>5567</v>
+        <v>5564</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D98" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>5576</v>
+        <v>5565</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D99" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>5583</v>
+        <v>5567</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>5584</v>
+        <v>5576</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>5596</v>
+        <v>5583</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="D102" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>5597</v>
+        <v>5584</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>5601</v>
+        <v>5596</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>5619</v>
+        <v>5597</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>5642</v>
+        <v>5601</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>5645</v>
+        <v>5619</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>5648</v>
+        <v>5642</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -2835,69 +2844,69 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>5649</v>
+        <v>5645</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>5655</v>
+        <v>5649</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>5664</v>
+        <v>5650</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>5665</v>
+        <v>5655</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -2905,27 +2914,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>5668</v>
+        <v>5664</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D114" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>5670</v>
+        <v>5665</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -2933,27 +2942,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>5673</v>
+        <v>5668</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D116" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>5682</v>
+        <v>5670</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C117" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -2961,69 +2970,69 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>5683</v>
+        <v>5673</v>
       </c>
       <c r="B118" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C118" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>5701</v>
+        <v>5682</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D119" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>5708</v>
+        <v>5683</v>
       </c>
       <c r="B120" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D120" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>5710</v>
+        <v>5701</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>5719</v>
+        <v>5708</v>
       </c>
       <c r="B122" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -3031,27 +3040,27 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>5728</v>
+        <v>5710</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>5731</v>
+        <v>5719</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -3059,27 +3068,27 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>5732</v>
+        <v>5728</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D125" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>5741</v>
+        <v>5731</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -3087,27 +3096,27 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>5751</v>
+        <v>5732</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C127" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="D127" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>5756</v>
+        <v>5741</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -3115,13 +3124,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>5761</v>
+        <v>5751</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -3129,27 +3138,27 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>5770</v>
+        <v>5756</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>5773</v>
+        <v>5761</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3157,69 +3166,69 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>5775</v>
+        <v>5770</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C132" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>5789</v>
+        <v>5773</v>
       </c>
       <c r="B133" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>5795</v>
+        <v>5775</v>
       </c>
       <c r="B134" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D134" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>5796</v>
+        <v>5789</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C135" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="B136" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -3227,83 +3236,83 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>5800</v>
+        <v>5796</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>5817</v>
+        <v>5797</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>5819</v>
+        <v>5800</v>
       </c>
       <c r="B139" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="D139" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>5822</v>
+        <v>5817</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>5826</v>
+        <v>5819</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>5828</v>
+        <v>5822</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -3311,27 +3320,27 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>5834</v>
+        <v>5826</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>5836</v>
+        <v>5828</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C144" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -3339,27 +3348,27 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>5837</v>
+        <v>5834</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D145" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>5839</v>
+        <v>5836</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C146" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -3367,83 +3376,83 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>5844</v>
+        <v>5837</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C147" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>5849</v>
+        <v>5839</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C148" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="D148" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>5850</v>
+        <v>5844</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C149" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D149" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>5853</v>
+        <v>5849</v>
       </c>
       <c r="B150" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D150" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>5854</v>
+        <v>5850</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C151" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="D151" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>5855</v>
+        <v>5853</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -3451,27 +3460,27 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>5859</v>
+        <v>5854</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>5863</v>
+        <v>5855</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -3479,27 +3488,27 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>5866</v>
+        <v>5859</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>5873</v>
+        <v>5863</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C156" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -3507,13 +3516,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>5876</v>
+        <v>5866</v>
       </c>
       <c r="B157" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C157" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
@@ -3521,55 +3530,55 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>5879</v>
+        <v>5873</v>
       </c>
       <c r="B158" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C158" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>5880</v>
+        <v>5876</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>5884</v>
+        <v>5879</v>
       </c>
       <c r="B160" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="D160" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>5886</v>
+        <v>5880</v>
       </c>
       <c r="B161" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C161" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D161" t="s">
         <v>13</v>
@@ -3577,13 +3586,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>5892</v>
+        <v>5884</v>
       </c>
       <c r="B162" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C162" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -3591,55 +3600,55 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>5894</v>
+        <v>5886</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C163" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="D163" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>5895</v>
+        <v>5892</v>
       </c>
       <c r="B164" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C164" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C165" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="B166" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -3647,41 +3656,41 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>5902</v>
+        <v>5900</v>
       </c>
       <c r="B167" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="D167" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>5914</v>
+        <v>5901</v>
       </c>
       <c r="B168" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C168" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="D168" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>5919</v>
+        <v>5902</v>
       </c>
       <c r="B169" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C169" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -3689,27 +3698,27 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>5920</v>
+        <v>5914</v>
       </c>
       <c r="B170" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C170" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>5922</v>
+        <v>5919</v>
       </c>
       <c r="B171" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C171" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="D171" t="s">
         <v>1</v>
@@ -3717,27 +3726,27 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>5939</v>
+        <v>5920</v>
       </c>
       <c r="B172" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="D172" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>5940</v>
+        <v>5922</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C173" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -3745,13 +3754,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>5951</v>
+        <v>5939</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C174" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -3759,13 +3768,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>5954</v>
+        <v>5940</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C175" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="D175" t="s">
         <v>1</v>
@@ -3773,13 +3782,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>5957</v>
+        <v>5951</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C176" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="D176" t="s">
         <v>1</v>
@@ -3787,13 +3796,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>5959</v>
+        <v>5954</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C177" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D177" t="s">
         <v>1</v>
@@ -3801,13 +3810,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>5968</v>
+        <v>5957</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C178" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="D178" t="s">
         <v>1</v>
@@ -3815,13 +3824,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>5970</v>
+        <v>5959</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C179" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D179" t="s">
         <v>1</v>
@@ -3829,13 +3838,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>5971</v>
+        <v>5968</v>
       </c>
       <c r="B180" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C180" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D180" t="s">
         <v>1</v>
@@ -3843,13 +3852,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>5972</v>
+        <v>5970</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C181" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="D181" t="s">
         <v>1</v>
@@ -3857,13 +3866,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -3871,13 +3880,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>5975</v>
+        <v>5972</v>
       </c>
       <c r="B183" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C183" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -3885,13 +3894,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>5976</v>
+        <v>5973</v>
       </c>
       <c r="B184" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C184" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="D184" t="s">
         <v>1</v>
@@ -3899,13 +3908,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>5979</v>
+        <v>5975</v>
       </c>
       <c r="B185" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C185" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="D185" t="s">
         <v>1</v>
@@ -3913,13 +3922,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>5981</v>
+        <v>5976</v>
       </c>
       <c r="B186" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C186" t="s">
-        <v>272</v>
+        <v>47</v>
       </c>
       <c r="D186" t="s">
         <v>1</v>
@@ -3927,13 +3936,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>5985</v>
+        <v>5979</v>
       </c>
       <c r="B187" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C187" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="D187" t="s">
         <v>1</v>
@@ -3941,13 +3950,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>5986</v>
+        <v>5981</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -3955,13 +3964,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>5988</v>
+        <v>5985</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C189" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="D189" t="s">
         <v>1</v>
@@ -3969,13 +3978,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>5989</v>
+        <v>5986</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C190" t="s">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="D190" t="s">
         <v>1</v>
@@ -3983,13 +3992,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>5990</v>
+        <v>5988</v>
       </c>
       <c r="B191" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="D191" t="s">
         <v>1</v>
@@ -3997,13 +4006,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>5991</v>
+        <v>5989</v>
       </c>
       <c r="B192" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C192" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D192" t="s">
         <v>1</v>
@@ -4011,41 +4020,41 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>5999</v>
+        <v>5990</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C193" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="D193" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>6000</v>
+        <v>5991</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D194" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>6002</v>
+        <v>5999</v>
       </c>
       <c r="B195" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C195" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D195" t="s">
         <v>192</v>
@@ -4053,13 +4062,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>6003</v>
+        <v>6000</v>
       </c>
       <c r="B196" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C196" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D196" t="s">
         <v>192</v>
@@ -4067,13 +4076,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B197" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="D197" t="s">
         <v>192</v>
@@ -4081,13 +4090,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="B198" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C198" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="D198" t="s">
         <v>192</v>
@@ -4095,13 +4104,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B199" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C199" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="D199" t="s">
         <v>192</v>
@@ -4109,13 +4118,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="B200" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C200" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="D200" t="s">
         <v>192</v>
@@ -4123,13 +4132,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="B201" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="D201" t="s">
         <v>192</v>
@@ -4137,13 +4146,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>6009</v>
+        <v>6007</v>
       </c>
       <c r="B202" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C202" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D202" t="s">
         <v>192</v>
@@ -4151,13 +4160,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>6010</v>
+        <v>6008</v>
       </c>
       <c r="B203" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C203" t="s">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="D203" t="s">
         <v>192</v>
@@ -4165,13 +4174,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>6011</v>
+        <v>6009</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D204" t="s">
         <v>192</v>
@@ -4179,13 +4188,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>6016</v>
+        <v>6010</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="D205" t="s">
         <v>192</v>
@@ -4193,13 +4202,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>6017</v>
+        <v>6011</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C206" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="D206" t="s">
         <v>192</v>
@@ -4207,13 +4216,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>6018</v>
+        <v>6016</v>
       </c>
       <c r="B207" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C207" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D207" t="s">
         <v>192</v>
@@ -4221,13 +4230,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>6019</v>
+        <v>6017</v>
       </c>
       <c r="B208" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C208" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="D208" t="s">
         <v>192</v>
@@ -4235,13 +4244,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>6020</v>
+        <v>6018</v>
       </c>
       <c r="B209" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C209" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="D209" t="s">
         <v>192</v>
@@ -4249,13 +4258,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>6021</v>
+        <v>6019</v>
       </c>
       <c r="B210" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D210" t="s">
         <v>192</v>
@@ -4263,13 +4272,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>6022</v>
+        <v>6020</v>
       </c>
       <c r="B211" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C211" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="D211" t="s">
         <v>192</v>
@@ -4277,13 +4286,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>6023</v>
+        <v>6021</v>
       </c>
       <c r="B212" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D212" t="s">
         <v>192</v>
@@ -4291,13 +4300,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>6024</v>
+        <v>6022</v>
       </c>
       <c r="B213" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C213" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D213" t="s">
         <v>192</v>
@@ -4305,13 +4314,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>6025</v>
+        <v>6023</v>
       </c>
       <c r="B214" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C214" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="D214" t="s">
         <v>192</v>
@@ -4319,13 +4328,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>6027</v>
+        <v>6024</v>
       </c>
       <c r="B215" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C215" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D215" t="s">
         <v>192</v>
@@ -4333,13 +4342,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>6028</v>
+        <v>6025</v>
       </c>
       <c r="B216" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C216" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="D216" t="s">
         <v>192</v>
@@ -4347,13 +4356,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>6029</v>
+        <v>6027</v>
       </c>
       <c r="B217" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D217" t="s">
         <v>192</v>
@@ -4361,13 +4370,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>6030</v>
+        <v>6028</v>
       </c>
       <c r="B218" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C218" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D218" t="s">
         <v>192</v>
@@ -4375,13 +4384,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>6031</v>
+        <v>6029</v>
       </c>
       <c r="B219" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C219" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D219" t="s">
         <v>192</v>
@@ -4389,13 +4398,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>6032</v>
+        <v>6030</v>
       </c>
       <c r="B220" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C220" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D220" t="s">
         <v>192</v>
@@ -4403,15 +4412,43 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
+        <v>6031</v>
+      </c>
+      <c r="B221" t="s">
+        <v>311</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>6032</v>
+      </c>
+      <c r="B222" t="s">
+        <v>312</v>
+      </c>
+      <c r="C222" t="s">
+        <v>61</v>
+      </c>
+      <c r="D222" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
         <v>6033</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B223" t="s">
         <v>313</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C223" t="s">
         <v>314</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D223" t="s">
         <v>192</v>
       </c>
     </row>

--- a/uploads/ejemplo_importacion_nomina.xlsx
+++ b/uploads/ejemplo_importacion_nomina.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="356">
   <si>
     <t>6443 - Sucursal Chivilcoy</t>
   </si>
@@ -527,9 +527,6 @@
     <t>6665 - Sucursal Lincoln</t>
   </si>
   <si>
-    <t>CHAMI GISELA</t>
-  </si>
-  <si>
     <t>HABERLE ALBANA NOEMI</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
     <t>BENGOCHEA MARIA FLORENCIA</t>
   </si>
   <si>
-    <t>BLANCO YAMILA LAURA</t>
-  </si>
-  <si>
     <t>5144 - Sucursal Grand Bourg</t>
   </si>
   <si>
@@ -788,9 +782,6 @@
     <t>NEILA MACARENA</t>
   </si>
   <si>
-    <t xml:space="preserve">5053 - Sucursal La Plata </t>
-  </si>
-  <si>
     <t>LOPEZ DANIELA ESTEFANIA</t>
   </si>
   <si>
@@ -941,18 +932,12 @@
     <t>VARRETTO IGNACIO</t>
   </si>
   <si>
-    <t>FIORE MELINA DANIELA</t>
-  </si>
-  <si>
     <t>GRANADA CALABRES IÑAKI</t>
   </si>
   <si>
     <t>MORENO MARIA VICTORIA</t>
   </si>
   <si>
-    <t>CORTEZ MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>SCHIANO JOHANA SOLEDAD</t>
   </si>
   <si>
@@ -989,16 +974,127 @@
     <t>TORRICELLI MARIA EUGENIA</t>
   </si>
   <si>
-    <t>PruebaUno</t>
-  </si>
-  <si>
-    <t>PruebaDos</t>
-  </si>
-  <si>
-    <t>1111 - Sucursal testing</t>
-  </si>
-  <si>
-    <t>pruebaTres</t>
+    <t>DIAZ ENRIQUE ANTONIO</t>
+  </si>
+  <si>
+    <t>102 - Subgerencia  Zonal Sur</t>
+  </si>
+  <si>
+    <t>JC - Jefatura Comercial</t>
+  </si>
+  <si>
+    <t>5044 - Sucursal Polvorines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-JC - EC Junior </t>
+  </si>
+  <si>
+    <t>CAPALBO VALERIA ANDREA</t>
+  </si>
+  <si>
+    <t>122 - Compliance</t>
+  </si>
+  <si>
+    <t>ASS - Analista Semi Senior</t>
+  </si>
+  <si>
+    <t>ALLAN ANAHI MONICA</t>
+  </si>
+  <si>
+    <t>007 - Procesos</t>
+  </si>
+  <si>
+    <t>An-S - Analista Senior</t>
+  </si>
+  <si>
+    <t>MESTRALET JULIAN HORACIO</t>
+  </si>
+  <si>
+    <t>073 - Inteligencia Comercial</t>
+  </si>
+  <si>
+    <t>An-J - Analista Junior</t>
+  </si>
+  <si>
+    <t>PEREZ JOAQUIN MARIO</t>
+  </si>
+  <si>
+    <t>MARTINEZ  SANTIAGO EZEQUIEL</t>
+  </si>
+  <si>
+    <t>082 - Desarrollo de Sistemas</t>
+  </si>
+  <si>
+    <t>RIVERO CHIRINO JOSE AUGUSTO</t>
+  </si>
+  <si>
+    <t>MARINO MARCELO DANIEL</t>
+  </si>
+  <si>
+    <t>119 - Seguridad Informática e Infraestructura</t>
+  </si>
+  <si>
+    <t>J - Jefatura</t>
+  </si>
+  <si>
+    <t>CASTRO MARIA CECILIA</t>
+  </si>
+  <si>
+    <t>055 - Gestión Estratégica</t>
+  </si>
+  <si>
+    <t>RUIBAL SOFIA</t>
+  </si>
+  <si>
+    <t>6823 - Sucursal Carhue</t>
+  </si>
+  <si>
+    <t>CHCAIR ANABELLA</t>
+  </si>
+  <si>
+    <t>ZANONI HERNAN OMAR</t>
+  </si>
+  <si>
+    <t>6201 - Sucursal Punta Alta</t>
+  </si>
+  <si>
+    <t>CORBANINI BRUNO</t>
+  </si>
+  <si>
+    <t>VALLEJOS IVANA ANAEL</t>
+  </si>
+  <si>
+    <t>SCAMPINI ESTEFANIA</t>
+  </si>
+  <si>
+    <t>RAMIREZ MARIA DOLORES</t>
+  </si>
+  <si>
+    <t>MODON VANINA ANAEL</t>
+  </si>
+  <si>
+    <t>5043 - Sucursal Tapiales</t>
+  </si>
+  <si>
+    <t>ARGOYTIA MARIA FLORENCIA</t>
+  </si>
+  <si>
+    <t>GARCIA VANESA</t>
+  </si>
+  <si>
+    <t>5064 - Sucursal Don Torcuato</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <t>tst</t>
+  </si>
+  <si>
+    <t>1111 - test</t>
+  </si>
+  <si>
+    <t>assss</t>
   </si>
 </sst>
 </file>
@@ -1316,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1332,16 +1428,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1349,10 +1445,10 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1363,13 +1459,13 @@
         <v>9999</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1377,13 +1473,13 @@
         <v>8888</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1391,7 +1487,7 @@
         <v>2242</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1402,27 +1498,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2285</v>
+        <v>2263</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1430,13 +1526,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1444,13 +1540,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2340</v>
+        <v>2288</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -1458,27 +1554,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2367</v>
+        <v>2340</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2389</v>
+        <v>2367</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1486,13 +1582,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2396</v>
+        <v>2389</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1500,13 +1596,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1514,13 +1610,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1528,27 +1624,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2446</v>
+        <v>2406</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -1556,27 +1652,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>5018</v>
+        <v>2447</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5022</v>
+        <v>5018</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1584,13 +1680,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5028</v>
+        <v>5022</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1598,13 +1694,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>5055</v>
+        <v>5028</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1612,13 +1708,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5061</v>
+        <v>5055</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1626,13 +1722,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -1640,27 +1736,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>5070</v>
+        <v>5063</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -1668,27 +1764,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>5085</v>
+        <v>5071</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>5088</v>
+        <v>5085</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1696,55 +1792,55 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>5110</v>
+        <v>5090</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>5123</v>
+        <v>5110</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1752,55 +1848,55 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>5133</v>
+        <v>5126</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1808,13 +1904,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1822,10 +1918,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>58</v>
@@ -1836,13 +1932,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -1850,13 +1946,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>5148</v>
+        <v>5140</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1864,27 +1960,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>5154</v>
+        <v>5148</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -1892,24 +1988,24 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>5162</v>
+        <v>5155</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -1920,13 +2016,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5177</v>
+        <v>5163</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -1934,69 +2030,69 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>5183</v>
+        <v>5179</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5189</v>
+        <v>5183</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>5190</v>
+        <v>5189</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>5191</v>
+        <v>5190</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -2004,13 +2100,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>5192</v>
+        <v>5191</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -2018,27 +2114,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>5199</v>
+        <v>5192</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>5216</v>
+        <v>5199</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -2046,13 +2142,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>5232</v>
+        <v>5216</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -2060,27 +2156,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>5236</v>
+        <v>5233</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2088,13 +2184,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -2102,13 +2198,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>5240</v>
+        <v>5237</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -2116,27 +2212,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>5245</v>
+        <v>5240</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>5248</v>
+        <v>5245</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -2144,27 +2240,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -2172,13 +2268,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -2186,13 +2282,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>5258</v>
+        <v>5253</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -2200,41 +2296,41 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>5263</v>
+        <v>5258</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>5271</v>
+        <v>5263</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>5272</v>
+        <v>5271</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -2242,41 +2338,41 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>5282</v>
+        <v>5272</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>5295</v>
+        <v>5282</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>5299</v>
+        <v>5295</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -2284,13 +2380,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>5329</v>
+        <v>5299</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -2298,13 +2394,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>5350</v>
+        <v>5329</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -2312,27 +2408,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>5353</v>
+        <v>5350</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>5356</v>
+        <v>5353</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -2340,13 +2436,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>5362</v>
+        <v>5356</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -2354,27 +2450,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>5374</v>
+        <v>5362</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>5380</v>
+        <v>5374</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -2382,27 +2478,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>5392</v>
+        <v>5380</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>5399</v>
+        <v>5392</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -2410,27 +2506,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>5412</v>
+        <v>5400</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -2438,55 +2534,55 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>5429</v>
+        <v>5412</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>5455</v>
+        <v>5429</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>5464</v>
+        <v>5455</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>5484</v>
+        <v>5464</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -2494,27 +2590,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>5487</v>
+        <v>5484</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>5488</v>
+        <v>5487</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -2522,97 +2618,97 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>5493</v>
+        <v>5490</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>5498</v>
+        <v>5493</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>5502</v>
+        <v>5498</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>5517</v>
+        <v>5502</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>5520</v>
+        <v>5517</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>5524</v>
+        <v>5520</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -2620,13 +2716,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>5533</v>
+        <v>5524</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -2634,41 +2730,41 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>5555</v>
+        <v>5533</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>5561</v>
+        <v>5555</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -2676,41 +2772,41 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>5563</v>
+        <v>5562</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="B99" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -2718,27 +2814,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>5567</v>
+        <v>5565</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>5576</v>
+        <v>5567</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -2746,27 +2842,27 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>5583</v>
+        <v>5576</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -2774,69 +2870,69 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>5596</v>
+        <v>5584</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
         <v>161</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>5601</v>
+        <v>5597</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>5619</v>
+        <v>5601</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="D107" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>5642</v>
+        <v>5619</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -2847,7 +2943,7 @@
         <v>5645</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
         <v>86</v>
@@ -2861,7 +2957,7 @@
         <v>5648</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
         <v>147</v>
@@ -2875,10 +2971,10 @@
         <v>5649</v>
       </c>
       <c r="B111" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" t="s">
         <v>169</v>
-      </c>
-      <c r="C111" t="s">
-        <v>170</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -2889,7 +2985,7 @@
         <v>5650</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -2903,7 +2999,7 @@
         <v>5655</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C113" t="s">
         <v>109</v>
@@ -2917,10 +3013,10 @@
         <v>5664</v>
       </c>
       <c r="B114" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" t="s">
         <v>173</v>
-      </c>
-      <c r="C114" t="s">
-        <v>174</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -2931,7 +3027,7 @@
         <v>5665</v>
       </c>
       <c r="B115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C115" t="s">
         <v>63</v>
@@ -2945,10 +3041,10 @@
         <v>5668</v>
       </c>
       <c r="B116" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" t="s">
         <v>176</v>
-      </c>
-      <c r="C116" t="s">
-        <v>177</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
@@ -2959,7 +3055,7 @@
         <v>5670</v>
       </c>
       <c r="B117" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C117" t="s">
         <v>100</v>
@@ -2973,10 +3069,10 @@
         <v>5673</v>
       </c>
       <c r="B118" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
         <v>179</v>
-      </c>
-      <c r="C118" t="s">
-        <v>180</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -2987,7 +3083,7 @@
         <v>5682</v>
       </c>
       <c r="B119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C119" t="s">
         <v>81</v>
@@ -3001,7 +3097,7 @@
         <v>5683</v>
       </c>
       <c r="B120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C120" t="s">
         <v>78</v>
@@ -3015,7 +3111,7 @@
         <v>5701</v>
       </c>
       <c r="B121" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -3029,7 +3125,7 @@
         <v>5708</v>
       </c>
       <c r="B122" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C122" t="s">
         <v>81</v>
@@ -3043,7 +3139,7 @@
         <v>5710</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
@@ -3057,7 +3153,7 @@
         <v>5719</v>
       </c>
       <c r="B124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -3071,10 +3167,10 @@
         <v>5728</v>
       </c>
       <c r="B125" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" t="s">
         <v>187</v>
-      </c>
-      <c r="C125" t="s">
-        <v>188</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -3085,7 +3181,7 @@
         <v>5731</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
         <v>144</v>
@@ -3099,13 +3195,13 @@
         <v>5732</v>
       </c>
       <c r="B127" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" t="s">
         <v>190</v>
       </c>
-      <c r="C127" t="s">
-        <v>191</v>
-      </c>
       <c r="D127" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3113,7 +3209,7 @@
         <v>5741</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
         <v>137</v>
@@ -3127,7 +3223,7 @@
         <v>5751</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C129" t="s">
         <v>72</v>
@@ -3141,10 +3237,10 @@
         <v>5756</v>
       </c>
       <c r="B130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -3155,10 +3251,10 @@
         <v>5761</v>
       </c>
       <c r="B131" t="s">
+        <v>195</v>
+      </c>
+      <c r="C131" t="s">
         <v>196</v>
-      </c>
-      <c r="C131" t="s">
-        <v>197</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3169,7 +3265,7 @@
         <v>5770</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -3183,7 +3279,7 @@
         <v>5773</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C133" t="s">
         <v>17</v>
@@ -3197,10 +3293,10 @@
         <v>5775</v>
       </c>
       <c r="B134" t="s">
+        <v>199</v>
+      </c>
+      <c r="C134" t="s">
         <v>200</v>
-      </c>
-      <c r="C134" t="s">
-        <v>201</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -3211,10 +3307,10 @@
         <v>5789</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -3225,10 +3321,10 @@
         <v>5795</v>
       </c>
       <c r="B136" t="s">
+        <v>202</v>
+      </c>
+      <c r="C136" t="s">
         <v>203</v>
-      </c>
-      <c r="C136" t="s">
-        <v>204</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -3239,7 +3335,7 @@
         <v>5796</v>
       </c>
       <c r="B137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
@@ -3253,7 +3349,7 @@
         <v>5797</v>
       </c>
       <c r="B138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
@@ -3264,41 +3360,41 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>5800</v>
+        <v>5817</v>
       </c>
       <c r="B139" t="s">
         <v>207</v>
       </c>
       <c r="C139" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="B140" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>5819</v>
+        <v>5822</v>
       </c>
       <c r="B141" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -3306,41 +3402,41 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>5822</v>
+        <v>5826</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C142" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>5826</v>
+        <v>5828</v>
       </c>
       <c r="B143" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>5828</v>
+        <v>5834</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -3348,13 +3444,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -3362,41 +3458,41 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D146" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>5837</v>
+        <v>5839</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D147" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>5839</v>
+        <v>5844</v>
       </c>
       <c r="B148" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" t="s">
         <v>217</v>
-      </c>
-      <c r="C148" t="s">
-        <v>54</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -3404,7 +3500,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>5844</v>
+        <v>5849</v>
       </c>
       <c r="B149" t="s">
         <v>218</v>
@@ -3413,18 +3509,18 @@
         <v>219</v>
       </c>
       <c r="D149" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="B150" t="s">
         <v>220</v>
       </c>
       <c r="C150" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -3432,27 +3528,27 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>5850</v>
+        <v>5853</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D151" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="B152" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C152" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -3460,13 +3556,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>5854</v>
+        <v>5855</v>
       </c>
       <c r="B153" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C153" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
         <v>1</v>
@@ -3474,97 +3570,97 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>5855</v>
+        <v>5859</v>
       </c>
       <c r="B154" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D154" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>5859</v>
+        <v>5863</v>
       </c>
       <c r="B155" t="s">
+        <v>225</v>
+      </c>
+      <c r="C155" t="s">
         <v>226</v>
       </c>
-      <c r="C155" t="s">
-        <v>72</v>
-      </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>5863</v>
+        <v>5866</v>
       </c>
       <c r="B156" t="s">
         <v>227</v>
       </c>
       <c r="C156" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D156" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>5866</v>
+        <v>5873</v>
       </c>
       <c r="B157" t="s">
+        <v>228</v>
+      </c>
+      <c r="C157" t="s">
         <v>229</v>
       </c>
-      <c r="C157" t="s">
-        <v>219</v>
-      </c>
       <c r="D157" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>5873</v>
+        <v>5876</v>
       </c>
       <c r="B158" t="s">
         <v>230</v>
       </c>
       <c r="C158" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D158" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>5876</v>
+        <v>5879</v>
       </c>
       <c r="B159" t="s">
+        <v>231</v>
+      </c>
+      <c r="C159" t="s">
         <v>232</v>
       </c>
-      <c r="C159" t="s">
-        <v>221</v>
-      </c>
       <c r="D159" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="B160" t="s">
         <v>233</v>
       </c>
       <c r="C160" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
@@ -3572,55 +3668,55 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>5880</v>
+        <v>5884</v>
       </c>
       <c r="B161" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>5884</v>
+        <v>5886</v>
       </c>
       <c r="B162" t="s">
+        <v>235</v>
+      </c>
+      <c r="C162" t="s">
         <v>236</v>
       </c>
-      <c r="C162" t="s">
-        <v>33</v>
-      </c>
       <c r="D162" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>5886</v>
+        <v>5892</v>
       </c>
       <c r="B163" t="s">
         <v>237</v>
       </c>
       <c r="C163" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>5892</v>
+        <v>5894</v>
       </c>
       <c r="B164" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D164" t="s">
         <v>1</v>
@@ -3628,21 +3724,21 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="B165" t="s">
+        <v>239</v>
+      </c>
+      <c r="C165" t="s">
         <v>240</v>
       </c>
-      <c r="C165" t="s">
-        <v>153</v>
-      </c>
       <c r="D165" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>5895</v>
+        <v>5900</v>
       </c>
       <c r="B166" t="s">
         <v>241</v>
@@ -3651,12 +3747,12 @@
         <v>242</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>5900</v>
+        <v>5901</v>
       </c>
       <c r="B167" t="s">
         <v>243</v>
@@ -3665,32 +3761,32 @@
         <v>244</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>5901</v>
+        <v>5902</v>
       </c>
       <c r="B168" t="s">
         <v>245</v>
       </c>
       <c r="C168" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="D168" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>5902</v>
+        <v>5914</v>
       </c>
       <c r="B169" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C169" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -3698,13 +3794,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>5914</v>
+        <v>5919</v>
       </c>
       <c r="B170" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C170" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -3712,41 +3808,41 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>5919</v>
+        <v>5920</v>
       </c>
       <c r="B171" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C171" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="D171" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>5920</v>
+        <v>5922</v>
       </c>
       <c r="B172" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C172" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D172" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>5922</v>
+        <v>5939</v>
       </c>
       <c r="B173" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C173" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -3754,13 +3850,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="B174" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C174" t="s">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -3768,13 +3864,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>5940</v>
+        <v>5951</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C175" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="D175" t="s">
         <v>1</v>
@@ -3782,13 +3878,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>5951</v>
+        <v>5954</v>
       </c>
       <c r="B176" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C176" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="D176" t="s">
         <v>1</v>
@@ -3796,13 +3892,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>5954</v>
+        <v>5957</v>
       </c>
       <c r="B177" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C177" t="s">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="D177" t="s">
         <v>1</v>
@@ -3810,13 +3906,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>5957</v>
+        <v>5959</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C178" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D178" t="s">
         <v>1</v>
@@ -3824,13 +3920,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>5959</v>
+        <v>5968</v>
       </c>
       <c r="B179" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C179" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D179" t="s">
         <v>1</v>
@@ -3838,13 +3934,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>5968</v>
+        <v>5970</v>
       </c>
       <c r="B180" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C180" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D180" t="s">
         <v>1</v>
@@ -3852,10 +3948,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="B181" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C181" t="s">
         <v>260</v>
@@ -3866,13 +3962,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="B182" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C182" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -3880,13 +3976,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>5972</v>
+        <v>5973</v>
       </c>
       <c r="B183" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C183" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -3894,13 +3990,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>5973</v>
+        <v>5975</v>
       </c>
       <c r="B184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C184" t="s">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c r="D184" t="s">
         <v>1</v>
@@ -3908,13 +4004,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>5975</v>
+        <v>5976</v>
       </c>
       <c r="B185" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C185" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D185" t="s">
         <v>1</v>
@@ -3922,13 +4018,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>5976</v>
+        <v>5979</v>
       </c>
       <c r="B186" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C186" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="D186" t="s">
         <v>1</v>
@@ -3936,13 +4032,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>5979</v>
+        <v>5981</v>
       </c>
       <c r="B187" t="s">
+        <v>268</v>
+      </c>
+      <c r="C187" t="s">
         <v>269</v>
-      </c>
-      <c r="C187" t="s">
-        <v>270</v>
       </c>
       <c r="D187" t="s">
         <v>1</v>
@@ -3950,13 +4046,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>5981</v>
+        <v>5985</v>
       </c>
       <c r="B188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C188" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -3964,13 +4060,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>5985</v>
+        <v>5986</v>
       </c>
       <c r="B189" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C189" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="D189" t="s">
         <v>1</v>
@@ -3978,13 +4074,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>5986</v>
+        <v>5988</v>
       </c>
       <c r="B190" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="D190" t="s">
         <v>1</v>
@@ -3992,13 +4088,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>5988</v>
+        <v>5989</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C191" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D191" t="s">
         <v>1</v>
@@ -4006,13 +4102,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>5989</v>
+        <v>5990</v>
       </c>
       <c r="B192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C192" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="D192" t="s">
         <v>1</v>
@@ -4020,13 +4116,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>5990</v>
+        <v>5991</v>
       </c>
       <c r="B193" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="D193" t="s">
         <v>1</v>
@@ -4034,13 +4130,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>5991</v>
+        <v>5999</v>
       </c>
       <c r="B194" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C194" t="s">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="D194" t="s">
         <v>1</v>
@@ -4048,408 +4144,618 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>5999</v>
+        <v>6000</v>
       </c>
       <c r="B195" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C195" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="D195" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="B196" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C196" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="D196" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>6002</v>
+        <v>6003</v>
       </c>
       <c r="B197" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C197" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="D197" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>6003</v>
+        <v>6004</v>
       </c>
       <c r="B198" t="s">
+        <v>284</v>
+      </c>
+      <c r="C198" t="s">
         <v>285</v>
       </c>
-      <c r="C198" t="s">
-        <v>286</v>
-      </c>
       <c r="D198" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>6004</v>
+        <v>6005</v>
       </c>
       <c r="B199" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C199" t="s">
-        <v>288</v>
+        <v>56</v>
       </c>
       <c r="D199" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>6005</v>
+        <v>6006</v>
       </c>
       <c r="B200" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C200" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="D200" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>6006</v>
+        <v>6007</v>
       </c>
       <c r="B201" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C201" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D201" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>6007</v>
+        <v>6008</v>
       </c>
       <c r="B202" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C202" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="D202" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>6008</v>
+        <v>6009</v>
       </c>
       <c r="B203" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D203" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>6009</v>
+        <v>6010</v>
       </c>
       <c r="B204" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C204" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="D204" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>6010</v>
+        <v>6011</v>
       </c>
       <c r="B205" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C205" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>6011</v>
+        <v>6016</v>
       </c>
       <c r="B206" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>6016</v>
+        <v>6017</v>
       </c>
       <c r="B207" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="D207" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>6017</v>
+        <v>6018</v>
       </c>
       <c r="B208" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C208" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="D208" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>6018</v>
+        <v>6019</v>
       </c>
       <c r="B209" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C209" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>6019</v>
+        <v>6020</v>
       </c>
       <c r="B210" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C210" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="D210" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>6020</v>
+        <v>6021</v>
       </c>
       <c r="B211" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D211" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>6021</v>
+        <v>6022</v>
       </c>
       <c r="B212" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="D212" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>6022</v>
+        <v>6024</v>
       </c>
       <c r="B213" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C213" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D213" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>6023</v>
+        <v>6025</v>
       </c>
       <c r="B214" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D214" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>6024</v>
+        <v>6028</v>
       </c>
       <c r="B215" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C215" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="D215" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>6025</v>
+        <v>6029</v>
       </c>
       <c r="B216" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C216" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="D216" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>6027</v>
+        <v>6030</v>
       </c>
       <c r="B217" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C217" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D217" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>6028</v>
+        <v>6031</v>
       </c>
       <c r="B218" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C218" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="D218" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>6029</v>
+        <v>6032</v>
       </c>
       <c r="B219" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D219" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>6030</v>
+        <v>6033</v>
       </c>
       <c r="B220" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C220" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="D220" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>6031</v>
+        <v>6034</v>
       </c>
       <c r="B221" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C221" t="s">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="D221" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>6032</v>
+        <v>6035</v>
       </c>
       <c r="B222" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C222" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="D222" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>6033</v>
+        <v>6036</v>
       </c>
       <c r="B223" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C223" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D223" t="s">
-        <v>192</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>6037</v>
+      </c>
+      <c r="B224" t="s">
+        <v>329</v>
+      </c>
+      <c r="C224" t="s">
+        <v>327</v>
+      </c>
+      <c r="D224" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>6038</v>
+      </c>
+      <c r="B225" t="s">
+        <v>330</v>
+      </c>
+      <c r="C225" t="s">
+        <v>331</v>
+      </c>
+      <c r="D225" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>6039</v>
+      </c>
+      <c r="B226" t="s">
+        <v>332</v>
+      </c>
+      <c r="C226" t="s">
+        <v>324</v>
+      </c>
+      <c r="D226" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>6040</v>
+      </c>
+      <c r="B227" t="s">
+        <v>333</v>
+      </c>
+      <c r="C227" t="s">
+        <v>334</v>
+      </c>
+      <c r="D227" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>6041</v>
+      </c>
+      <c r="B228" t="s">
+        <v>336</v>
+      </c>
+      <c r="C228" t="s">
+        <v>337</v>
+      </c>
+      <c r="D228" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>6042</v>
+      </c>
+      <c r="B229" t="s">
+        <v>338</v>
+      </c>
+      <c r="C229" t="s">
+        <v>339</v>
+      </c>
+      <c r="D229" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>6043</v>
+      </c>
+      <c r="B230" t="s">
+        <v>340</v>
+      </c>
+      <c r="C230" t="s">
+        <v>81</v>
+      </c>
+      <c r="D230" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>6044</v>
+      </c>
+      <c r="B231" t="s">
+        <v>341</v>
+      </c>
+      <c r="C231" t="s">
+        <v>342</v>
+      </c>
+      <c r="D231" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>6045</v>
+      </c>
+      <c r="B232" t="s">
+        <v>343</v>
+      </c>
+      <c r="C232" t="s">
+        <v>51</v>
+      </c>
+      <c r="D232" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>6046</v>
+      </c>
+      <c r="B233" t="s">
+        <v>344</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>6047</v>
+      </c>
+      <c r="B234" t="s">
+        <v>345</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>6048</v>
+      </c>
+      <c r="B235" t="s">
+        <v>346</v>
+      </c>
+      <c r="C235" t="s">
+        <v>35</v>
+      </c>
+      <c r="D235" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>6049</v>
+      </c>
+      <c r="B236" t="s">
+        <v>347</v>
+      </c>
+      <c r="C236" t="s">
+        <v>348</v>
+      </c>
+      <c r="D236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>6050</v>
+      </c>
+      <c r="B237" t="s">
+        <v>349</v>
+      </c>
+      <c r="C237" t="s">
+        <v>309</v>
+      </c>
+      <c r="D237" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>6051</v>
+      </c>
+      <c r="B238" t="s">
+        <v>350</v>
+      </c>
+      <c r="C238" t="s">
+        <v>351</v>
+      </c>
+      <c r="D238" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/ejemplo_importacion_nomina.xlsx
+++ b/uploads/ejemplo_importacion_nomina.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="356">
   <si>
     <t>6443 - Sucursal Chivilcoy</t>
   </si>
@@ -527,9 +527,6 @@
     <t>6665 - Sucursal Lincoln</t>
   </si>
   <si>
-    <t>CHAMI GISELA</t>
-  </si>
-  <si>
     <t>HABERLE ALBANA NOEMI</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
     <t>BENGOCHEA MARIA FLORENCIA</t>
   </si>
   <si>
-    <t>BLANCO YAMILA LAURA</t>
-  </si>
-  <si>
     <t>5144 - Sucursal Grand Bourg</t>
   </si>
   <si>
@@ -788,9 +782,6 @@
     <t>NEILA MACARENA</t>
   </si>
   <si>
-    <t xml:space="preserve">5053 - Sucursal La Plata </t>
-  </si>
-  <si>
     <t>LOPEZ DANIELA ESTEFANIA</t>
   </si>
   <si>
@@ -941,18 +932,12 @@
     <t>VARRETTO IGNACIO</t>
   </si>
   <si>
-    <t>FIORE MELINA DANIELA</t>
-  </si>
-  <si>
     <t>GRANADA CALABRES IÑAKI</t>
   </si>
   <si>
     <t>MORENO MARIA VICTORIA</t>
   </si>
   <si>
-    <t>CORTEZ MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>SCHIANO JOHANA SOLEDAD</t>
   </si>
   <si>
@@ -986,10 +971,130 @@
     <t>category</t>
   </si>
   <si>
-    <t>TORRICELLI MARIA EUGENIAaaaaa</t>
-  </si>
-  <si>
-    <t>Pruebaaaaaaaaaa</t>
+    <t>TORRICELLI MARIA EUGENIA</t>
+  </si>
+  <si>
+    <t>DIAZ ENRIQUE ANTONIO</t>
+  </si>
+  <si>
+    <t>102 - Subgerencia  Zonal Sur</t>
+  </si>
+  <si>
+    <t>JC - Jefatura Comercial</t>
+  </si>
+  <si>
+    <t>5044 - Sucursal Polvorines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-JC - EC Junior </t>
+  </si>
+  <si>
+    <t>CAPALBO VALERIA ANDREA</t>
+  </si>
+  <si>
+    <t>122 - Compliance</t>
+  </si>
+  <si>
+    <t>ASS - Analista Semi Senior</t>
+  </si>
+  <si>
+    <t>ALLAN ANAHI MONICA</t>
+  </si>
+  <si>
+    <t>007 - Procesos</t>
+  </si>
+  <si>
+    <t>An-S - Analista Senior</t>
+  </si>
+  <si>
+    <t>MESTRALET JULIAN HORACIO</t>
+  </si>
+  <si>
+    <t>073 - Inteligencia Comercial</t>
+  </si>
+  <si>
+    <t>An-J - Analista Junior</t>
+  </si>
+  <si>
+    <t>PEREZ JOAQUIN MARIO</t>
+  </si>
+  <si>
+    <t>MARTINEZ  SANTIAGO EZEQUIEL</t>
+  </si>
+  <si>
+    <t>082 - Desarrollo de Sistemas</t>
+  </si>
+  <si>
+    <t>RIVERO CHIRINO JOSE AUGUSTO</t>
+  </si>
+  <si>
+    <t>MARINO MARCELO DANIEL</t>
+  </si>
+  <si>
+    <t>119 - Seguridad Informática e Infraestructura</t>
+  </si>
+  <si>
+    <t>J - Jefatura</t>
+  </si>
+  <si>
+    <t>CASTRO MARIA CECILIA</t>
+  </si>
+  <si>
+    <t>055 - Gestión Estratégica</t>
+  </si>
+  <si>
+    <t>RUIBAL SOFIA</t>
+  </si>
+  <si>
+    <t>6823 - Sucursal Carhue</t>
+  </si>
+  <si>
+    <t>CHCAIR ANABELLA</t>
+  </si>
+  <si>
+    <t>ZANONI HERNAN OMAR</t>
+  </si>
+  <si>
+    <t>6201 - Sucursal Punta Alta</t>
+  </si>
+  <si>
+    <t>CORBANINI BRUNO</t>
+  </si>
+  <si>
+    <t>VALLEJOS IVANA ANAEL</t>
+  </si>
+  <si>
+    <t>SCAMPINI ESTEFANIA</t>
+  </si>
+  <si>
+    <t>RAMIREZ MARIA DOLORES</t>
+  </si>
+  <si>
+    <t>MODON VANINA ANAEL</t>
+  </si>
+  <si>
+    <t>5043 - Sucursal Tapiales</t>
+  </si>
+  <si>
+    <t>ARGOYTIA MARIA FLORENCIA</t>
+  </si>
+  <si>
+    <t>GARCIA VANESA</t>
+  </si>
+  <si>
+    <t>5064 - Sucursal Don Torcuato</t>
+  </si>
+  <si>
+    <t>1111 - test</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>bbbbbbbbbbb</t>
+  </si>
+  <si>
+    <t>cccccccccccccc</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1323,16 +1428,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1340,10 +1445,10 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1351,13 +1456,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2242</v>
+        <v>9999</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1365,13 +1470,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2285</v>
+        <v>8888</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>352</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -1379,41 +1484,41 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2286</v>
+        <v>2242</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2288</v>
+        <v>2263</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2340</v>
+        <v>2285</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1421,55 +1526,55 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2367</v>
+        <v>2286</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2389</v>
+        <v>2288</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2396</v>
+        <v>2340</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2400</v>
+        <v>2367</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1477,13 +1582,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2406</v>
+        <v>2389</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1491,41 +1596,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2446</v>
+        <v>2396</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2447</v>
+        <v>2400</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>5018</v>
+        <v>2406</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1533,41 +1638,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>5022</v>
+        <v>2446</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>5028</v>
+        <v>2447</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5055</v>
+        <v>5018</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1575,13 +1680,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5061</v>
+        <v>5022</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1589,13 +1694,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>5063</v>
+        <v>5028</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1603,41 +1708,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5070</v>
+        <v>5055</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>5071</v>
+        <v>5061</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>5085</v>
+        <v>5063</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1645,27 +1750,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>5088</v>
+        <v>5070</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>5089</v>
+        <v>5071</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -1673,13 +1778,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>5090</v>
+        <v>5085</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1687,41 +1792,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5110</v>
+        <v>5088</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5123</v>
+        <v>5089</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>5124</v>
+        <v>5090</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1729,41 +1834,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>5126</v>
+        <v>5110</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>5133</v>
+        <v>5123</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>5136</v>
+        <v>5124</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1771,27 +1876,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>5138</v>
+        <v>5126</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5139</v>
+        <v>5133</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1799,13 +1904,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5140</v>
+        <v>5136</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1813,13 +1918,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>5148</v>
+        <v>5138</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1827,41 +1932,41 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>5154</v>
+        <v>5139</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>5155</v>
+        <v>5140</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>5162</v>
+        <v>5148</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -1869,55 +1974,55 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>5163</v>
+        <v>5154</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>5177</v>
+        <v>5155</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>5179</v>
+        <v>5162</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5183</v>
+        <v>5163</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -1925,41 +2030,41 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>5189</v>
+        <v>5177</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>5190</v>
+        <v>5179</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5191</v>
+        <v>5183</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -1967,111 +2072,111 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>5192</v>
+        <v>5189</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>5199</v>
+        <v>5190</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>5216</v>
+        <v>5191</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>5232</v>
+        <v>5192</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>5233</v>
+        <v>5199</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>5236</v>
+        <v>5216</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>5237</v>
+        <v>5232</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>5240</v>
+        <v>5233</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2079,83 +2184,83 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>5245</v>
+        <v>5236</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>5248</v>
+        <v>5237</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>5251</v>
+        <v>5245</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>5253</v>
+        <v>5248</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>5258</v>
+        <v>5250</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -2163,55 +2268,55 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>5263</v>
+        <v>5251</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>5271</v>
+        <v>5253</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>5272</v>
+        <v>5258</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>5282</v>
+        <v>5263</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -2219,55 +2324,55 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>5295</v>
+        <v>5271</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>5299</v>
+        <v>5272</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>5329</v>
+        <v>5282</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>5350</v>
+        <v>5295</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -2275,83 +2380,83 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>5353</v>
+        <v>5299</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>5356</v>
+        <v>5329</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>5362</v>
+        <v>5350</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>5374</v>
+        <v>5353</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>5380</v>
+        <v>5356</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>5392</v>
+        <v>5362</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -2359,55 +2464,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>5399</v>
+        <v>5374</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>5400</v>
+        <v>5380</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>5412</v>
+        <v>5392</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>5429</v>
+        <v>5399</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2415,27 +2520,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>5455</v>
+        <v>5400</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>5464</v>
+        <v>5412</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -2443,55 +2548,55 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>5484</v>
+        <v>5429</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>5487</v>
+        <v>5455</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>5488</v>
+        <v>5464</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>5490</v>
+        <v>5484</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -2499,13 +2604,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>5493</v>
+        <v>5487</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -2513,41 +2618,41 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>5498</v>
+        <v>5488</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>5502</v>
+        <v>5490</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>5517</v>
+        <v>5493</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -2555,13 +2660,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>5520</v>
+        <v>5498</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -2569,55 +2674,55 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>5524</v>
+        <v>5502</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>5533</v>
+        <v>5517</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>5555</v>
+        <v>5520</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>5561</v>
+        <v>5524</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -2625,13 +2730,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>5562</v>
+        <v>5533</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -2639,13 +2744,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>5563</v>
+        <v>5555</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -2653,41 +2758,41 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>5564</v>
+        <v>5561</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>5565</v>
+        <v>5562</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>5567</v>
+        <v>5563</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -2695,55 +2800,55 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>5576</v>
+        <v>5564</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D99" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>5583</v>
+        <v>5565</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>5584</v>
+        <v>5567</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>5596</v>
+        <v>5576</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -2751,27 +2856,27 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>5597</v>
+        <v>5583</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>5601</v>
+        <v>5584</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -2779,13 +2884,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>5619</v>
+        <v>5596</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -2793,27 +2898,27 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>5642</v>
+        <v>5597</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="D106" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>5645</v>
+        <v>5601</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -2821,13 +2926,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>5648</v>
+        <v>5619</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -2835,69 +2940,69 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>5649</v>
+        <v>5645</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>5655</v>
+        <v>5649</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>5664</v>
+        <v>5650</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>5665</v>
+        <v>5655</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -2905,27 +3010,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>5668</v>
+        <v>5664</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D114" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>5670</v>
+        <v>5665</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C115" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -2933,27 +3038,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>5673</v>
+        <v>5668</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D116" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>5682</v>
+        <v>5670</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C117" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -2961,69 +3066,69 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>5683</v>
+        <v>5673</v>
       </c>
       <c r="B118" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C118" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>5701</v>
+        <v>5682</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D119" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>5708</v>
+        <v>5683</v>
       </c>
       <c r="B120" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C120" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D120" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>5710</v>
+        <v>5701</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>5719</v>
+        <v>5708</v>
       </c>
       <c r="B122" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -3031,27 +3136,27 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>5728</v>
+        <v>5710</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>5731</v>
+        <v>5719</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -3059,27 +3164,27 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>5732</v>
+        <v>5728</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D125" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>5741</v>
+        <v>5731</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -3087,27 +3192,27 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>5751</v>
+        <v>5732</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C127" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="D127" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>5756</v>
+        <v>5741</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -3115,13 +3220,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>5761</v>
+        <v>5751</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -3129,27 +3234,27 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>5770</v>
+        <v>5756</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>5773</v>
+        <v>5761</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3157,69 +3262,69 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>5775</v>
+        <v>5770</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>5789</v>
+        <v>5773</v>
       </c>
       <c r="B133" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>5795</v>
+        <v>5775</v>
       </c>
       <c r="B134" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D134" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>5796</v>
+        <v>5789</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C135" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="B136" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -3227,55 +3332,55 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>5800</v>
+        <v>5796</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>5817</v>
+        <v>5797</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="B139" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>5822</v>
+        <v>5819</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -3283,41 +3388,41 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>5826</v>
+        <v>5822</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="D141" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>5834</v>
+        <v>5828</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -3325,13 +3430,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C144" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -3339,41 +3444,41 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>5837</v>
+        <v>5836</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D145" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D146" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>5844</v>
+        <v>5839</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C147" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -3381,27 +3486,27 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>5849</v>
+        <v>5844</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C148" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D148" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C149" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -3409,27 +3514,27 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>5853</v>
+        <v>5850</v>
       </c>
       <c r="B150" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D150" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>5854</v>
+        <v>5853</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C151" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -3437,13 +3542,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>5855</v>
+        <v>5854</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -3451,97 +3556,97 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>5859</v>
+        <v>5855</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>5863</v>
+        <v>5859</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="D154" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>5866</v>
+        <v>5863</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>5873</v>
+        <v>5866</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C156" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D156" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>5876</v>
+        <v>5873</v>
       </c>
       <c r="B157" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C157" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D157" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>5879</v>
+        <v>5876</v>
       </c>
       <c r="B158" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C158" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>5880</v>
+        <v>5879</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="D159" t="s">
         <v>13</v>
@@ -3549,55 +3654,55 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>5884</v>
+        <v>5880</v>
       </c>
       <c r="B160" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>5886</v>
+        <v>5884</v>
       </c>
       <c r="B161" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C161" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>5892</v>
+        <v>5886</v>
       </c>
       <c r="B162" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C162" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="D162" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C163" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -3605,69 +3710,69 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>5895</v>
+        <v>5894</v>
       </c>
       <c r="B164" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C164" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>5900</v>
+        <v>5895</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C165" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="B166" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="B167" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C167" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="D167" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>5914</v>
+        <v>5902</v>
       </c>
       <c r="B168" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C168" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -3675,13 +3780,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>5919</v>
+        <v>5914</v>
       </c>
       <c r="B169" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C169" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -3689,41 +3794,41 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>5920</v>
+        <v>5919</v>
       </c>
       <c r="B170" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C170" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="D170" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>5922</v>
+        <v>5920</v>
       </c>
       <c r="B171" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C171" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D171" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>5939</v>
+        <v>5922</v>
       </c>
       <c r="B172" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -3731,13 +3836,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C173" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -3745,13 +3850,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>5951</v>
+        <v>5940</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C174" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -3759,13 +3864,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>5954</v>
+        <v>5951</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C175" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D175" t="s">
         <v>1</v>
@@ -3773,13 +3878,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>5957</v>
+        <v>5954</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C176" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="D176" t="s">
         <v>1</v>
@@ -3787,13 +3892,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>5959</v>
+        <v>5957</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C177" t="s">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="D177" t="s">
         <v>1</v>
@@ -3801,13 +3906,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>5968</v>
+        <v>5959</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C178" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D178" t="s">
         <v>1</v>
@@ -3815,13 +3920,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>5970</v>
+        <v>5968</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C179" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D179" t="s">
         <v>1</v>
@@ -3829,13 +3934,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>5971</v>
+        <v>5970</v>
       </c>
       <c r="B180" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C180" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D180" t="s">
         <v>1</v>
@@ -3843,13 +3948,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>5972</v>
+        <v>5971</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C181" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="D181" t="s">
         <v>1</v>
@@ -3857,13 +3962,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>5973</v>
+        <v>5972</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -3871,13 +3976,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="B183" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C183" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -3885,13 +3990,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>5976</v>
+        <v>5975</v>
       </c>
       <c r="B184" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C184" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D184" t="s">
         <v>1</v>
@@ -3899,13 +4004,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>5979</v>
+        <v>5976</v>
       </c>
       <c r="B185" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C185" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="D185" t="s">
         <v>1</v>
@@ -3913,13 +4018,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>5981</v>
+        <v>5979</v>
       </c>
       <c r="B186" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C186" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D186" t="s">
         <v>1</v>
@@ -3927,13 +4032,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>5985</v>
+        <v>5981</v>
       </c>
       <c r="B187" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C187" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="D187" t="s">
         <v>1</v>
@@ -3941,13 +4046,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>5986</v>
+        <v>5985</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -3955,13 +4060,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>5988</v>
+        <v>5986</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C189" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="D189" t="s">
         <v>1</v>
@@ -3969,13 +4074,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>5989</v>
+        <v>5988</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C190" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D190" t="s">
         <v>1</v>
@@ -3983,13 +4088,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>5990</v>
+        <v>5989</v>
       </c>
       <c r="B191" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="D191" t="s">
         <v>1</v>
@@ -3997,13 +4102,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>5991</v>
+        <v>5990</v>
       </c>
       <c r="B192" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C192" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="D192" t="s">
         <v>1</v>
@@ -4011,282 +4116,282 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>5999</v>
+        <v>5991</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C193" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="D193" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>6000</v>
+        <v>5999</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>159</v>
       </c>
       <c r="D194" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>6002</v>
+        <v>6000</v>
       </c>
       <c r="B195" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C195" t="s">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="D195" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B196" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C196" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="D196" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B197" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D197" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B198" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C198" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="D198" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B199" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C199" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="D199" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="B200" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C200" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D200" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B201" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D201" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="B202" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C202" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D202" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="B203" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C203" t="s">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c r="D203" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="D204" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>6016</v>
+        <v>6011</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>6017</v>
+        <v>6016</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C206" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>6018</v>
+        <v>6017</v>
       </c>
       <c r="B207" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C207" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="D207" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>6019</v>
+        <v>6018</v>
       </c>
       <c r="B208" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C208" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D208" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>6020</v>
+        <v>6019</v>
       </c>
       <c r="B209" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C209" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="B210" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="D210" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="B211" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D211" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>6023</v>
+        <v>6022</v>
       </c>
       <c r="B212" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="D212" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -4294,13 +4399,13 @@
         <v>6024</v>
       </c>
       <c r="B213" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C213" t="s">
         <v>88</v>
       </c>
       <c r="D213" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -4308,111 +4413,349 @@
         <v>6025</v>
       </c>
       <c r="B214" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C214" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D214" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>6027</v>
+        <v>6028</v>
       </c>
       <c r="B215" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C215" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D215" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>6028</v>
+        <v>6029</v>
       </c>
       <c r="B216" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C216" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="D216" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>6029</v>
+        <v>6030</v>
       </c>
       <c r="B217" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D217" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>6030</v>
+        <v>6031</v>
       </c>
       <c r="B218" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C218" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D218" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>6031</v>
+        <v>6032</v>
       </c>
       <c r="B219" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C219" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D219" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>6032</v>
+        <v>6033</v>
       </c>
       <c r="B220" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C220" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="D220" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>6033</v>
+        <v>6034</v>
       </c>
       <c r="B221" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C221" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D221" t="s">
-        <v>192</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>6035</v>
+      </c>
+      <c r="B222" t="s">
+        <v>323</v>
+      </c>
+      <c r="C222" t="s">
+        <v>324</v>
+      </c>
+      <c r="D222" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>6036</v>
+      </c>
+      <c r="B223" t="s">
+        <v>326</v>
+      </c>
+      <c r="C223" t="s">
+        <v>327</v>
+      </c>
+      <c r="D223" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>6037</v>
+      </c>
+      <c r="B224" t="s">
+        <v>329</v>
+      </c>
+      <c r="C224" t="s">
+        <v>327</v>
+      </c>
+      <c r="D224" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>6038</v>
+      </c>
+      <c r="B225" t="s">
+        <v>330</v>
+      </c>
+      <c r="C225" t="s">
+        <v>331</v>
+      </c>
+      <c r="D225" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>6039</v>
+      </c>
+      <c r="B226" t="s">
+        <v>332</v>
+      </c>
+      <c r="C226" t="s">
+        <v>324</v>
+      </c>
+      <c r="D226" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>6040</v>
+      </c>
+      <c r="B227" t="s">
+        <v>333</v>
+      </c>
+      <c r="C227" t="s">
+        <v>334</v>
+      </c>
+      <c r="D227" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>6041</v>
+      </c>
+      <c r="B228" t="s">
+        <v>336</v>
+      </c>
+      <c r="C228" t="s">
+        <v>337</v>
+      </c>
+      <c r="D228" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>6042</v>
+      </c>
+      <c r="B229" t="s">
+        <v>338</v>
+      </c>
+      <c r="C229" t="s">
+        <v>339</v>
+      </c>
+      <c r="D229" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>6043</v>
+      </c>
+      <c r="B230" t="s">
+        <v>340</v>
+      </c>
+      <c r="C230" t="s">
+        <v>81</v>
+      </c>
+      <c r="D230" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>6044</v>
+      </c>
+      <c r="B231" t="s">
+        <v>341</v>
+      </c>
+      <c r="C231" t="s">
+        <v>342</v>
+      </c>
+      <c r="D231" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>6045</v>
+      </c>
+      <c r="B232" t="s">
+        <v>343</v>
+      </c>
+      <c r="C232" t="s">
+        <v>51</v>
+      </c>
+      <c r="D232" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>6046</v>
+      </c>
+      <c r="B233" t="s">
+        <v>344</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>6047</v>
+      </c>
+      <c r="B234" t="s">
+        <v>345</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>6048</v>
+      </c>
+      <c r="B235" t="s">
+        <v>346</v>
+      </c>
+      <c r="C235" t="s">
+        <v>35</v>
+      </c>
+      <c r="D235" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>6049</v>
+      </c>
+      <c r="B236" t="s">
+        <v>347</v>
+      </c>
+      <c r="C236" t="s">
+        <v>348</v>
+      </c>
+      <c r="D236" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>6050</v>
+      </c>
+      <c r="B237" t="s">
+        <v>349</v>
+      </c>
+      <c r="C237" t="s">
+        <v>309</v>
+      </c>
+      <c r="D237" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>6051</v>
+      </c>
+      <c r="B238" t="s">
+        <v>350</v>
+      </c>
+      <c r="C238" t="s">
+        <v>351</v>
+      </c>
+      <c r="D238" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/ejemplo_importacion_nomina.xlsx
+++ b/uploads/ejemplo_importacion_nomina.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="352">
   <si>
     <t>6443 - Sucursal Chivilcoy</t>
   </si>
@@ -1083,18 +1083,6 @@
   </si>
   <si>
     <t>5064 - Sucursal Don Torcuato</t>
-  </si>
-  <si>
-    <t>prueba</t>
-  </si>
-  <si>
-    <t>tst</t>
-  </si>
-  <si>
-    <t>1111 - test</t>
-  </si>
-  <si>
-    <t>assss</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1442,41 +1430,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1111</v>
+        <v>2242</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>9999</v>
+        <v>2263</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>8888</v>
+        <v>2285</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -1484,41 +1472,41 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2242</v>
+        <v>2286</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2263</v>
+        <v>2288</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2285</v>
+        <v>2340</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1526,55 +1514,55 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2286</v>
+        <v>2367</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2288</v>
+        <v>2389</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2340</v>
+        <v>2396</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2367</v>
+        <v>2400</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1582,13 +1570,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2389</v>
+        <v>2406</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1596,41 +1584,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2396</v>
+        <v>2446</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2400</v>
+        <v>2447</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2406</v>
+        <v>5018</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1638,41 +1626,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2446</v>
+        <v>5022</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2447</v>
+        <v>5028</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5018</v>
+        <v>5055</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1680,13 +1668,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5022</v>
+        <v>5061</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1694,13 +1682,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>5028</v>
+        <v>5063</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1708,41 +1696,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5055</v>
+        <v>5070</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>5061</v>
+        <v>5071</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>5063</v>
+        <v>5085</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1750,27 +1738,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>5070</v>
+        <v>5088</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>5071</v>
+        <v>5089</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -1778,13 +1766,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>5085</v>
+        <v>5090</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1792,41 +1780,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5088</v>
+        <v>5110</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5089</v>
+        <v>5123</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>5090</v>
+        <v>5124</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1834,41 +1822,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>5110</v>
+        <v>5126</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>5123</v>
+        <v>5133</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>5124</v>
+        <v>5136</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1876,27 +1864,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>5126</v>
+        <v>5138</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5133</v>
+        <v>5139</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1904,13 +1892,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5136</v>
+        <v>5140</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1918,13 +1906,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>5138</v>
+        <v>5148</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1932,41 +1920,41 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>5139</v>
+        <v>5154</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>318</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>5140</v>
+        <v>5155</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>5148</v>
+        <v>5162</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -1974,55 +1962,55 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>5154</v>
+        <v>5163</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>5155</v>
+        <v>5177</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>5162</v>
+        <v>5179</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5163</v>
+        <v>5183</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -2030,41 +2018,41 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>5177</v>
+        <v>5189</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>5179</v>
+        <v>5190</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5183</v>
+        <v>5191</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2072,111 +2060,111 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>5189</v>
+        <v>5192</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>5190</v>
+        <v>5199</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>5191</v>
+        <v>5216</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>5192</v>
+        <v>5232</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>5199</v>
+        <v>5233</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>5216</v>
+        <v>5236</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>5232</v>
+        <v>5237</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>5233</v>
+        <v>5240</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2184,83 +2172,83 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>5236</v>
+        <v>5245</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>5237</v>
+        <v>5248</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>5240</v>
+        <v>5250</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>5245</v>
+        <v>5251</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>5248</v>
+        <v>5253</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>5250</v>
+        <v>5258</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -2268,55 +2256,55 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>5251</v>
+        <v>5263</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>5253</v>
+        <v>5271</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>5258</v>
+        <v>5272</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>5263</v>
+        <v>5282</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -2324,55 +2312,55 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>5271</v>
+        <v>5295</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>5272</v>
+        <v>5299</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>5282</v>
+        <v>5329</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>5295</v>
+        <v>5350</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -2380,83 +2368,83 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>5299</v>
+        <v>5353</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>5329</v>
+        <v>5356</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>5350</v>
+        <v>5362</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>5353</v>
+        <v>5374</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>5356</v>
+        <v>5380</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>5362</v>
+        <v>5392</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -2464,55 +2452,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>5374</v>
+        <v>5399</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>5380</v>
+        <v>5400</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>5392</v>
+        <v>5412</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>5399</v>
+        <v>5429</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2520,27 +2508,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>5400</v>
+        <v>5455</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>5412</v>
+        <v>5464</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -2548,55 +2536,55 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>5429</v>
+        <v>5484</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>5455</v>
+        <v>5487</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D82" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>5464</v>
+        <v>5488</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>5484</v>
+        <v>5490</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -2604,13 +2592,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>5487</v>
+        <v>5493</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -2618,41 +2606,41 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>5488</v>
+        <v>5498</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>5490</v>
+        <v>5502</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>5493</v>
+        <v>5517</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -2660,13 +2648,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>5498</v>
+        <v>5520</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -2674,55 +2662,55 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>5502</v>
+        <v>5524</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>5517</v>
+        <v>5533</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>5520</v>
+        <v>5555</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>5524</v>
+        <v>5561</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -2730,13 +2718,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>5533</v>
+        <v>5562</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -2744,13 +2732,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>5555</v>
+        <v>5563</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -2758,41 +2746,41 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>5561</v>
+        <v>5564</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>5562</v>
+        <v>5565</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>5563</v>
+        <v>5567</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
@@ -2800,55 +2788,55 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>5564</v>
+        <v>5576</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>5565</v>
+        <v>5583</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>5567</v>
+        <v>5584</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D101" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>5576</v>
+        <v>5596</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -2856,27 +2844,27 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>5583</v>
+        <v>5597</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>5584</v>
+        <v>5601</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -2884,13 +2872,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>5596</v>
+        <v>5619</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -2898,69 +2886,69 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>5597</v>
+        <v>5645</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>5601</v>
+        <v>5648</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>5619</v>
+        <v>5649</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C108" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>5645</v>
+        <v>5650</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>5648</v>
+        <v>5655</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -2968,55 +2956,55 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>5649</v>
+        <v>5664</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>5650</v>
+        <v>5665</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>5655</v>
+        <v>5668</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="D113" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>5664</v>
+        <v>5670</v>
       </c>
       <c r="B114" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -3024,13 +3012,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>5665</v>
+        <v>5673</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -3038,52 +3026,52 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>5668</v>
+        <v>5682</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="D116" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>5670</v>
+        <v>5683</v>
       </c>
       <c r="B117" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D117" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>5673</v>
+        <v>5701</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>5682</v>
+        <v>5708</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
         <v>81</v>
@@ -3094,69 +3082,69 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>5683</v>
+        <v>5710</v>
       </c>
       <c r="B120" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>5701</v>
+        <v>5719</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>5708</v>
+        <v>5728</v>
       </c>
       <c r="B122" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="D122" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>5710</v>
+        <v>5731</v>
       </c>
       <c r="B123" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>5719</v>
+        <v>5732</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -3164,41 +3152,41 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>5728</v>
+        <v>5741</v>
       </c>
       <c r="B125" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C125" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>5731</v>
+        <v>5751</v>
       </c>
       <c r="B126" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D126" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>5732</v>
+        <v>5756</v>
       </c>
       <c r="B127" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -3206,55 +3194,55 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>5741</v>
+        <v>5761</v>
       </c>
       <c r="B128" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="D128" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>5751</v>
+        <v>5770</v>
       </c>
       <c r="B129" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C129" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>5756</v>
+        <v>5773</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C130" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>5761</v>
+        <v>5775</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C131" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3262,41 +3250,41 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>5770</v>
+        <v>5789</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>5773</v>
+        <v>5795</v>
       </c>
       <c r="B133" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="D133" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>5775</v>
+        <v>5796</v>
       </c>
       <c r="B134" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -3304,13 +3292,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>5789</v>
+        <v>5797</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C135" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -3318,41 +3306,41 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>5795</v>
+        <v>5817</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C136" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>5796</v>
+        <v>5819</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>5797</v>
+        <v>5822</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -3360,13 +3348,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>5817</v>
+        <v>5826</v>
       </c>
       <c r="B139" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
@@ -3374,13 +3362,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>5819</v>
+        <v>5828</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -3388,13 +3376,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>5822</v>
+        <v>5834</v>
       </c>
       <c r="B141" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C141" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -3402,41 +3390,41 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>5826</v>
+        <v>5836</v>
       </c>
       <c r="B142" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D142" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>5828</v>
+        <v>5837</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D143" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>5834</v>
+        <v>5839</v>
       </c>
       <c r="B144" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C144" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -3444,13 +3432,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>5836</v>
+        <v>5844</v>
       </c>
       <c r="B145" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -3458,13 +3446,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>5837</v>
+        <v>5849</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -3472,27 +3460,27 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>5839</v>
+        <v>5850</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C147" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="D147" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>5844</v>
+        <v>5853</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C148" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -3500,55 +3488,55 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>5849</v>
+        <v>5854</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C149" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D149" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>5850</v>
+        <v>5855</v>
       </c>
       <c r="B150" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C150" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>5853</v>
+        <v>5859</v>
       </c>
       <c r="B151" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C151" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="D151" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>5854</v>
+        <v>5863</v>
       </c>
       <c r="B152" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C152" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -3556,97 +3544,97 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>5855</v>
+        <v>5866</v>
       </c>
       <c r="B153" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="D153" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>5859</v>
+        <v>5873</v>
       </c>
       <c r="B154" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C154" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>5863</v>
+        <v>5876</v>
       </c>
       <c r="B155" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C155" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D155" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>5866</v>
+        <v>5879</v>
       </c>
       <c r="B156" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>5873</v>
+        <v>5880</v>
       </c>
       <c r="B157" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C157" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>5876</v>
+        <v>5884</v>
       </c>
       <c r="B158" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C158" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="D158" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>5879</v>
+        <v>5886</v>
       </c>
       <c r="B159" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C159" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D159" t="s">
         <v>13</v>
@@ -3654,27 +3642,27 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>5880</v>
+        <v>5892</v>
       </c>
       <c r="B160" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>5884</v>
+        <v>5894</v>
       </c>
       <c r="B161" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -3682,111 +3670,111 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>5886</v>
+        <v>5895</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>5892</v>
+        <v>5900</v>
       </c>
       <c r="B163" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C163" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="D163" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>5894</v>
+        <v>5901</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C164" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="D164" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>5895</v>
+        <v>5902</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C165" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="D165" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>5900</v>
+        <v>5914</v>
       </c>
       <c r="B166" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C166" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>5901</v>
+        <v>5919</v>
       </c>
       <c r="B167" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C167" t="s">
         <v>244</v>
       </c>
       <c r="D167" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>5902</v>
+        <v>5920</v>
       </c>
       <c r="B168" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C168" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="D168" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>5914</v>
+        <v>5922</v>
       </c>
       <c r="B169" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C169" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -3794,13 +3782,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>5919</v>
+        <v>5939</v>
       </c>
       <c r="B170" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -3808,27 +3796,27 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>5920</v>
+        <v>5940</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D171" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>5922</v>
+        <v>5951</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C172" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -3836,13 +3824,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>5939</v>
+        <v>5954</v>
       </c>
       <c r="B173" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -3850,13 +3838,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>5940</v>
+        <v>5957</v>
       </c>
       <c r="B174" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C174" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -3864,13 +3852,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>5951</v>
+        <v>5959</v>
       </c>
       <c r="B175" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D175" t="s">
         <v>1</v>
@@ -3878,13 +3866,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>5954</v>
+        <v>5968</v>
       </c>
       <c r="B176" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C176" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D176" t="s">
         <v>1</v>
@@ -3892,13 +3880,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>5957</v>
+        <v>5970</v>
       </c>
       <c r="B177" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="D177" t="s">
         <v>1</v>
@@ -3906,13 +3894,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>5959</v>
+        <v>5971</v>
       </c>
       <c r="B178" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C178" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D178" t="s">
         <v>1</v>
@@ -3920,13 +3908,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>5968</v>
+        <v>5972</v>
       </c>
       <c r="B179" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C179" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="D179" t="s">
         <v>1</v>
@@ -3934,13 +3922,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>5970</v>
+        <v>5973</v>
       </c>
       <c r="B180" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C180" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D180" t="s">
         <v>1</v>
@@ -3948,13 +3936,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>5971</v>
+        <v>5975</v>
       </c>
       <c r="B181" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C181" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="D181" t="s">
         <v>1</v>
@@ -3962,13 +3950,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>5972</v>
+        <v>5976</v>
       </c>
       <c r="B182" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C182" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -3976,13 +3964,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>5973</v>
+        <v>5979</v>
       </c>
       <c r="B183" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C183" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -3990,13 +3978,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>5975</v>
+        <v>5981</v>
       </c>
       <c r="B184" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C184" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="D184" t="s">
         <v>1</v>
@@ -4004,13 +3992,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>5976</v>
+        <v>5985</v>
       </c>
       <c r="B185" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C185" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="D185" t="s">
         <v>1</v>
@@ -4018,13 +4006,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>5979</v>
+        <v>5986</v>
       </c>
       <c r="B186" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C186" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="D186" t="s">
         <v>1</v>
@@ -4032,13 +4020,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>5981</v>
+        <v>5988</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C187" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D187" t="s">
         <v>1</v>
@@ -4046,13 +4034,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>5985</v>
+        <v>5989</v>
       </c>
       <c r="B188" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C188" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -4060,13 +4048,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>5986</v>
+        <v>5990</v>
       </c>
       <c r="B189" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="D189" t="s">
         <v>1</v>
@@ -4074,13 +4062,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>5988</v>
+        <v>5991</v>
       </c>
       <c r="B190" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C190" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D190" t="s">
         <v>1</v>
@@ -4088,13 +4076,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>5989</v>
+        <v>5999</v>
       </c>
       <c r="B191" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C191" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="D191" t="s">
         <v>1</v>
@@ -4102,13 +4090,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>5990</v>
+        <v>6000</v>
       </c>
       <c r="B192" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C192" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="D192" t="s">
         <v>1</v>
@@ -4116,13 +4104,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>5991</v>
+        <v>6002</v>
       </c>
       <c r="B193" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C193" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="D193" t="s">
         <v>1</v>
@@ -4130,13 +4118,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>5999</v>
+        <v>6003</v>
       </c>
       <c r="B194" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C194" t="s">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="D194" t="s">
         <v>1</v>
@@ -4144,13 +4132,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>6000</v>
+        <v>6004</v>
       </c>
       <c r="B195" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C195" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D195" t="s">
         <v>1</v>
@@ -4158,13 +4146,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>6002</v>
+        <v>6005</v>
       </c>
       <c r="B196" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C196" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="D196" t="s">
         <v>1</v>
@@ -4172,13 +4160,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>6003</v>
+        <v>6006</v>
       </c>
       <c r="B197" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C197" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="D197" t="s">
         <v>1</v>
@@ -4186,13 +4174,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>6004</v>
+        <v>6007</v>
       </c>
       <c r="B198" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C198" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="D198" t="s">
         <v>1</v>
@@ -4200,13 +4188,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>6005</v>
+        <v>6008</v>
       </c>
       <c r="B199" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C199" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D199" t="s">
         <v>1</v>
@@ -4214,13 +4202,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>6006</v>
+        <v>6009</v>
       </c>
       <c r="B200" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C200" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D200" t="s">
         <v>1</v>
@@ -4228,13 +4216,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>6007</v>
+        <v>6010</v>
       </c>
       <c r="B201" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C201" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="D201" t="s">
         <v>1</v>
@@ -4242,13 +4230,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>6008</v>
+        <v>6011</v>
       </c>
       <c r="B202" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D202" t="s">
         <v>1</v>
@@ -4256,55 +4244,55 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>6009</v>
+        <v>6016</v>
       </c>
       <c r="B203" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C203" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>1</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>6010</v>
+        <v>6017</v>
       </c>
       <c r="B204" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C204" t="s">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="D204" t="s">
-        <v>1</v>
+        <v>319</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>6011</v>
+        <v>6018</v>
       </c>
       <c r="B205" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D205" t="s">
-        <v>1</v>
+        <v>319</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>6016</v>
+        <v>6019</v>
       </c>
       <c r="B206" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D206" t="s">
         <v>319</v>
@@ -4312,13 +4300,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>6017</v>
+        <v>6020</v>
       </c>
       <c r="B207" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C207" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D207" t="s">
         <v>319</v>
@@ -4326,13 +4314,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>6018</v>
+        <v>6021</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C208" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D208" t="s">
         <v>319</v>
@@ -4340,13 +4328,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>6019</v>
+        <v>6022</v>
       </c>
       <c r="B209" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C209" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="D209" t="s">
         <v>319</v>
@@ -4354,13 +4342,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>6020</v>
+        <v>6024</v>
       </c>
       <c r="B210" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C210" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D210" t="s">
         <v>319</v>
@@ -4368,13 +4356,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>6021</v>
+        <v>6025</v>
       </c>
       <c r="B211" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="D211" t="s">
         <v>319</v>
@@ -4382,13 +4370,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>6022</v>
+        <v>6028</v>
       </c>
       <c r="B212" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C212" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="D212" t="s">
         <v>319</v>
@@ -4396,13 +4384,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>6024</v>
+        <v>6029</v>
       </c>
       <c r="B213" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C213" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D213" t="s">
         <v>319</v>
@@ -4410,13 +4398,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>6025</v>
+        <v>6030</v>
       </c>
       <c r="B214" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C214" t="s">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="D214" t="s">
         <v>319</v>
@@ -4424,13 +4412,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>6028</v>
+        <v>6031</v>
       </c>
       <c r="B215" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C215" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="D215" t="s">
         <v>319</v>
@@ -4438,13 +4426,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>6029</v>
+        <v>6032</v>
       </c>
       <c r="B216" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D216" t="s">
         <v>319</v>
@@ -4452,13 +4440,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>6030</v>
+        <v>6033</v>
       </c>
       <c r="B217" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C217" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="D217" t="s">
         <v>319</v>
@@ -4466,55 +4454,55 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>6031</v>
+        <v>6034</v>
       </c>
       <c r="B218" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C218" t="s">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="D218" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>6032</v>
+        <v>6035</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C219" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="D219" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>6033</v>
+        <v>6036</v>
       </c>
       <c r="B220" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C220" t="s">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="D220" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>6034</v>
+        <v>6037</v>
       </c>
       <c r="B221" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C221" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D221" t="s">
         <v>322</v>
@@ -4522,111 +4510,111 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>6035</v>
+        <v>6038</v>
       </c>
       <c r="B222" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C222" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D222" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>6036</v>
+        <v>6039</v>
       </c>
       <c r="B223" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C223" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D223" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>6037</v>
+        <v>6040</v>
       </c>
       <c r="B224" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C224" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D224" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>6038</v>
+        <v>6041</v>
       </c>
       <c r="B225" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C225" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D225" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>6039</v>
+        <v>6042</v>
       </c>
       <c r="B226" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C226" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D226" t="s">
-        <v>322</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>6040</v>
+        <v>6043</v>
       </c>
       <c r="B227" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C227" t="s">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="D227" t="s">
-        <v>335</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>6041</v>
+        <v>6044</v>
       </c>
       <c r="B228" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C228" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D228" t="s">
-        <v>335</v>
+        <v>191</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>6042</v>
+        <v>6045</v>
       </c>
       <c r="B229" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C229" t="s">
-        <v>339</v>
+        <v>51</v>
       </c>
       <c r="D229" t="s">
         <v>191</v>
@@ -4634,13 +4622,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>6043</v>
+        <v>6046</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C230" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D230" t="s">
         <v>191</v>
@@ -4648,13 +4636,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>6044</v>
+        <v>6047</v>
       </c>
       <c r="B231" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C231" t="s">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="D231" t="s">
         <v>191</v>
@@ -4662,13 +4650,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>6045</v>
+        <v>6048</v>
       </c>
       <c r="B232" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C232" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D232" t="s">
         <v>191</v>
@@ -4676,13 +4664,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>6046</v>
+        <v>6049</v>
       </c>
       <c r="B233" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="D233" t="s">
         <v>191</v>
@@ -4690,13 +4678,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>6047</v>
+        <v>6050</v>
       </c>
       <c r="B234" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="D234" t="s">
         <v>191</v>
@@ -4704,57 +4692,15 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>6048</v>
+        <v>6051</v>
       </c>
       <c r="B235" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="D235" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236">
-        <v>6049</v>
-      </c>
-      <c r="B236" t="s">
-        <v>347</v>
-      </c>
-      <c r="C236" t="s">
-        <v>348</v>
-      </c>
-      <c r="D236" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237">
-        <v>6050</v>
-      </c>
-      <c r="B237" t="s">
-        <v>349</v>
-      </c>
-      <c r="C237" t="s">
-        <v>309</v>
-      </c>
-      <c r="D237" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238">
-        <v>6051</v>
-      </c>
-      <c r="B238" t="s">
-        <v>350</v>
-      </c>
-      <c r="C238" t="s">
-        <v>351</v>
-      </c>
-      <c r="D238" t="s">
         <v>191</v>
       </c>
     </row>

--- a/uploads/ejemplo_importacion_nomina.xlsx
+++ b/uploads/ejemplo_importacion_nomina.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="354">
   <si>
     <t>6443 - Sucursal Chivilcoy</t>
   </si>
@@ -1083,6 +1083,12 @@
   </si>
   <si>
     <t>5064 - Sucursal Don Torcuato</t>
+  </si>
+  <si>
+    <t>1111 - sucu</t>
+  </si>
+  <si>
+    <t>agus millan tst</t>
   </si>
 </sst>
 </file>
@@ -1400,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1430,13 +1436,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2242</v>
+        <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -1444,41 +1450,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2263</v>
+        <v>2242</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2285</v>
+        <v>2263</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1486,13 +1492,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1500,13 +1506,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2340</v>
+        <v>2288</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1514,27 +1520,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2367</v>
+        <v>2340</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2389</v>
+        <v>2367</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1542,13 +1548,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2396</v>
+        <v>2389</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1556,13 +1562,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1570,13 +1576,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1584,27 +1590,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2446</v>
+        <v>2406</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -1612,27 +1618,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>5018</v>
+        <v>2447</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>5022</v>
+        <v>5018</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1640,13 +1646,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>5028</v>
+        <v>5022</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1654,13 +1660,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5055</v>
+        <v>5028</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1668,13 +1674,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5061</v>
+        <v>5055</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1682,13 +1688,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1696,27 +1702,27 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5070</v>
+        <v>5063</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -1724,27 +1730,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>5085</v>
+        <v>5071</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>5088</v>
+        <v>5085</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -1752,55 +1758,55 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>5110</v>
+        <v>5090</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5123</v>
+        <v>5110</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1808,55 +1814,55 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>5133</v>
+        <v>5126</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1864,13 +1870,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1878,13 +1884,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1892,13 +1898,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1906,13 +1912,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>5148</v>
+        <v>5140</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1920,27 +1926,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>5154</v>
+        <v>5148</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1948,24 +1954,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>5162</v>
+        <v>5155</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -1976,13 +1982,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>5177</v>
+        <v>5163</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1990,69 +1996,69 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5183</v>
+        <v>5179</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>5189</v>
+        <v>5183</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>5190</v>
+        <v>5189</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5191</v>
+        <v>5190</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2060,13 +2066,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>5192</v>
+        <v>5191</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -2074,27 +2080,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>5199</v>
+        <v>5192</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>5216</v>
+        <v>5199</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -2102,13 +2108,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>5232</v>
+        <v>5216</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -2116,27 +2122,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>5236</v>
+        <v>5233</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -2144,13 +2150,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -2158,13 +2164,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>5240</v>
+        <v>5237</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2172,27 +2178,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>5245</v>
+        <v>5240</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>5248</v>
+        <v>5245</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -2200,27 +2206,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -2228,13 +2234,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -2242,13 +2248,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>5258</v>
+        <v>5253</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -2256,41 +2262,41 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>5263</v>
+        <v>5258</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>5271</v>
+        <v>5263</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>5272</v>
+        <v>5271</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -2298,41 +2304,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>5282</v>
+        <v>5272</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>5295</v>
+        <v>5282</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>5299</v>
+        <v>5295</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -2340,13 +2346,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>5329</v>
+        <v>5299</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -2354,13 +2360,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>5350</v>
+        <v>5329</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -2368,27 +2374,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>5353</v>
+        <v>5350</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>5356</v>
+        <v>5353</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -2396,13 +2402,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>5362</v>
+        <v>5356</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -2410,27 +2416,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>5374</v>
+        <v>5362</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>5380</v>
+        <v>5374</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -2438,27 +2444,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>5392</v>
+        <v>5380</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>5399</v>
+        <v>5392</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -2466,27 +2472,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>5412</v>
+        <v>5400</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -2494,55 +2500,55 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>5429</v>
+        <v>5412</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>5455</v>
+        <v>5429</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>5464</v>
+        <v>5455</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>5484</v>
+        <v>5464</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -2550,27 +2556,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>5487</v>
+        <v>5484</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>5488</v>
+        <v>5487</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -2578,97 +2584,97 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>5493</v>
+        <v>5490</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>5498</v>
+        <v>5493</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>5502</v>
+        <v>5498</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>5517</v>
+        <v>5502</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>5520</v>
+        <v>5517</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>5524</v>
+        <v>5520</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -2676,13 +2682,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>5533</v>
+        <v>5524</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -2690,41 +2696,41 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>5555</v>
+        <v>5533</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>5561</v>
+        <v>5555</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -2732,41 +2738,41 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>5563</v>
+        <v>5562</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -2774,27 +2780,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>5567</v>
+        <v>5565</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>5576</v>
+        <v>5567</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -2802,27 +2808,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>5583</v>
+        <v>5576</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -2830,111 +2836,111 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>5596</v>
+        <v>5584</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
         <v>161</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>5601</v>
+        <v>5597</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>5619</v>
+        <v>5601</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="D105" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>5645</v>
+        <v>5619</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>5648</v>
+        <v>5645</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="D107" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="B109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -2942,27 +2948,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>5655</v>
+        <v>5650</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C110" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>5664</v>
+        <v>5655</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -2970,13 +2976,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C112" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -2984,41 +2990,41 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>5668</v>
+        <v>5665</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="D114" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>5673</v>
+        <v>5670</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -3026,13 +3032,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>5682</v>
+        <v>5673</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C116" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="D116" t="s">
         <v>1</v>
@@ -3040,27 +3046,27 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>5683</v>
+        <v>5682</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>5701</v>
+        <v>5683</v>
       </c>
       <c r="B118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -3068,83 +3074,83 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>5708</v>
+        <v>5701</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>5710</v>
+        <v>5708</v>
       </c>
       <c r="B120" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>5719</v>
+        <v>5710</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>5728</v>
+        <v>5719</v>
       </c>
       <c r="B122" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C122" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>5731</v>
+        <v>5728</v>
       </c>
       <c r="B123" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="D123" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>5732</v>
+        <v>5731</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -3152,13 +3158,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>5741</v>
+        <v>5732</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -3166,83 +3172,83 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>5751</v>
+        <v>5741</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C126" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="D126" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>5756</v>
+        <v>5751</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="D127" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>5761</v>
+        <v>5756</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C128" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>5770</v>
+        <v>5761</v>
       </c>
       <c r="B129" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>5773</v>
+        <v>5770</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C131" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3250,27 +3256,27 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>5789</v>
+        <v>5775</v>
       </c>
       <c r="B132" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="D132" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="B133" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C133" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -3278,69 +3284,69 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="D134" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>5817</v>
+        <v>5797</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>5822</v>
+        <v>5819</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C138" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -3348,41 +3354,41 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>5826</v>
+        <v>5822</v>
       </c>
       <c r="B139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="D139" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>5834</v>
+        <v>5828</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C141" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -3390,13 +3396,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -3404,41 +3410,41 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>5837</v>
+        <v>5836</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D144" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>5844</v>
+        <v>5839</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C145" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -3446,27 +3452,27 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>5849</v>
+        <v>5844</v>
       </c>
       <c r="B146" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D146" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="B147" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C147" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -3474,27 +3480,27 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>5853</v>
+        <v>5850</v>
       </c>
       <c r="B148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C148" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="D148" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>5854</v>
+        <v>5853</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C149" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D149" t="s">
         <v>1</v>
@@ -3502,13 +3508,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>5855</v>
+        <v>5854</v>
       </c>
       <c r="B150" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="D150" t="s">
         <v>1</v>
@@ -3516,97 +3522,97 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>5859</v>
+        <v>5855</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>5863</v>
+        <v>5859</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C152" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="D152" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>5866</v>
+        <v>5863</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C153" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D153" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>5873</v>
+        <v>5866</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C154" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D154" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>5876</v>
+        <v>5873</v>
       </c>
       <c r="B155" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>5879</v>
+        <v>5876</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C156" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>5880</v>
+        <v>5879</v>
       </c>
       <c r="B157" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="D157" t="s">
         <v>13</v>
@@ -3614,55 +3620,55 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>5884</v>
+        <v>5880</v>
       </c>
       <c r="B158" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>5886</v>
+        <v>5884</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C159" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>5892</v>
+        <v>5886</v>
       </c>
       <c r="B160" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="B161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C161" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -3670,69 +3676,69 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>5895</v>
+        <v>5894</v>
       </c>
       <c r="B162" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C162" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="D162" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>5900</v>
+        <v>5895</v>
       </c>
       <c r="B163" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C163" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="B164" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C164" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="B165" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C165" t="s">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="D165" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>5914</v>
+        <v>5902</v>
       </c>
       <c r="B166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C166" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -3740,13 +3746,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>5919</v>
+        <v>5914</v>
       </c>
       <c r="B167" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -3754,41 +3760,41 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>5920</v>
+        <v>5919</v>
       </c>
       <c r="B168" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C168" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="D168" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>5922</v>
+        <v>5920</v>
       </c>
       <c r="B169" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C169" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D169" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>5939</v>
+        <v>5922</v>
       </c>
       <c r="B170" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C170" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -3796,13 +3802,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="B171" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C171" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D171" t="s">
         <v>1</v>
@@ -3810,13 +3816,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>5951</v>
+        <v>5940</v>
       </c>
       <c r="B172" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C172" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -3824,13 +3830,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>5954</v>
+        <v>5951</v>
       </c>
       <c r="B173" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C173" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -3838,13 +3844,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>5957</v>
+        <v>5954</v>
       </c>
       <c r="B174" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -3852,13 +3858,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>5959</v>
+        <v>5957</v>
       </c>
       <c r="B175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C175" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="D175" t="s">
         <v>1</v>
@@ -3866,13 +3872,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>5968</v>
+        <v>5959</v>
       </c>
       <c r="B176" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C176" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D176" t="s">
         <v>1</v>
@@ -3880,10 +3886,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>5970</v>
+        <v>5968</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C177" t="s">
         <v>257</v>
@@ -3894,13 +3900,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>5971</v>
+        <v>5970</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C178" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D178" t="s">
         <v>1</v>
@@ -3908,13 +3914,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>5972</v>
+        <v>5971</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C179" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="D179" t="s">
         <v>1</v>
@@ -3922,13 +3928,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>5973</v>
+        <v>5972</v>
       </c>
       <c r="B180" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C180" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="D180" t="s">
         <v>1</v>
@@ -3936,13 +3942,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C181" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="D181" t="s">
         <v>1</v>
@@ -3950,13 +3956,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>5976</v>
+        <v>5975</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C182" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -3964,13 +3970,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>5979</v>
+        <v>5976</v>
       </c>
       <c r="B183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C183" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -3978,13 +3984,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>5981</v>
+        <v>5979</v>
       </c>
       <c r="B184" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C184" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D184" t="s">
         <v>1</v>
@@ -3992,13 +3998,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>5985</v>
+        <v>5981</v>
       </c>
       <c r="B185" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C185" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="D185" t="s">
         <v>1</v>
@@ -4006,13 +4012,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>5986</v>
+        <v>5985</v>
       </c>
       <c r="B186" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="D186" t="s">
         <v>1</v>
@@ -4020,13 +4026,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>5988</v>
+        <v>5986</v>
       </c>
       <c r="B187" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C187" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="D187" t="s">
         <v>1</v>
@@ -4034,13 +4040,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>5989</v>
+        <v>5988</v>
       </c>
       <c r="B188" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C188" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -4048,13 +4054,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>5990</v>
+        <v>5989</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C189" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="D189" t="s">
         <v>1</v>
@@ -4062,13 +4068,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>5991</v>
+        <v>5990</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C190" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="D190" t="s">
         <v>1</v>
@@ -4076,13 +4082,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>5999</v>
+        <v>5991</v>
       </c>
       <c r="B191" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C191" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="D191" t="s">
         <v>1</v>
@@ -4090,13 +4096,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>6000</v>
+        <v>5999</v>
       </c>
       <c r="B192" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C192" t="s">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="D192" t="s">
         <v>1</v>
@@ -4104,13 +4110,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>6002</v>
+        <v>6000</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C193" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="D193" t="s">
         <v>1</v>
@@ -4118,13 +4124,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="D194" t="s">
         <v>1</v>
@@ -4132,13 +4138,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B195" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C195" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D195" t="s">
         <v>1</v>
@@ -4146,13 +4152,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B196" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C196" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="D196" t="s">
         <v>1</v>
@@ -4160,13 +4166,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B197" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C197" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="D197" t="s">
         <v>1</v>
@@ -4174,13 +4180,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="B198" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C198" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D198" t="s">
         <v>1</v>
@@ -4188,13 +4194,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B199" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D199" t="s">
         <v>1</v>
@@ -4202,13 +4208,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="B200" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C200" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D200" t="s">
         <v>1</v>
@@ -4216,13 +4222,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="B201" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C201" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="D201" t="s">
         <v>1</v>
@@ -4230,13 +4236,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="B202" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>292</v>
       </c>
       <c r="D202" t="s">
         <v>1</v>
@@ -4244,27 +4250,27 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>6016</v>
+        <v>6011</v>
       </c>
       <c r="B203" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>6017</v>
+        <v>6016</v>
       </c>
       <c r="B204" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C204" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="D204" t="s">
         <v>319</v>
@@ -4272,13 +4278,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>6018</v>
+        <v>6017</v>
       </c>
       <c r="B205" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C205" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="D205" t="s">
         <v>319</v>
@@ -4286,13 +4292,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>6019</v>
+        <v>6018</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C206" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D206" t="s">
         <v>319</v>
@@ -4300,13 +4306,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>6020</v>
+        <v>6019</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C207" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="D207" t="s">
         <v>319</v>
@@ -4314,13 +4320,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="B208" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="D208" t="s">
         <v>319</v>
@@ -4328,13 +4334,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="B209" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C209" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="D209" t="s">
         <v>319</v>
@@ -4342,13 +4348,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>6024</v>
+        <v>6022</v>
       </c>
       <c r="B210" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C210" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="D210" t="s">
         <v>319</v>
@@ -4356,13 +4362,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>6025</v>
+        <v>6024</v>
       </c>
       <c r="B211" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C211" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="D211" t="s">
         <v>319</v>
@@ -4370,13 +4376,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>6028</v>
+        <v>6025</v>
       </c>
       <c r="B212" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C212" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="D212" t="s">
         <v>319</v>
@@ -4384,13 +4390,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>6029</v>
+        <v>6028</v>
       </c>
       <c r="B213" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D213" t="s">
         <v>319</v>
@@ -4398,13 +4404,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>6030</v>
+        <v>6029</v>
       </c>
       <c r="B214" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C214" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D214" t="s">
         <v>319</v>
@@ -4412,13 +4418,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>6031</v>
+        <v>6030</v>
       </c>
       <c r="B215" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C215" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D215" t="s">
         <v>319</v>
@@ -4426,13 +4432,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>6032</v>
+        <v>6031</v>
       </c>
       <c r="B216" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C216" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D216" t="s">
         <v>319</v>
@@ -4440,13 +4446,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>6033</v>
+        <v>6032</v>
       </c>
       <c r="B217" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C217" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D217" t="s">
         <v>319</v>
@@ -4454,69 +4460,69 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>6034</v>
+        <v>6033</v>
       </c>
       <c r="B218" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C218" t="s">
-        <v>321</v>
+        <v>149</v>
       </c>
       <c r="D218" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>6035</v>
+        <v>6034</v>
       </c>
       <c r="B219" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C219" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D219" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>6036</v>
+        <v>6035</v>
       </c>
       <c r="B220" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C220" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D220" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>6037</v>
+        <v>6036</v>
       </c>
       <c r="B221" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C221" t="s">
         <v>327</v>
       </c>
       <c r="D221" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>6038</v>
+        <v>6037</v>
       </c>
       <c r="B222" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C222" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D222" t="s">
         <v>322</v>
@@ -4524,13 +4530,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>6039</v>
+        <v>6038</v>
       </c>
       <c r="B223" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C223" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D223" t="s">
         <v>322</v>
@@ -4538,27 +4544,27 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>6040</v>
+        <v>6039</v>
       </c>
       <c r="B224" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C224" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D224" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>6041</v>
+        <v>6040</v>
       </c>
       <c r="B225" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C225" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D225" t="s">
         <v>335</v>
@@ -4566,27 +4572,27 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>6042</v>
+        <v>6041</v>
       </c>
       <c r="B226" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C226" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D226" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>6043</v>
+        <v>6042</v>
       </c>
       <c r="B227" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C227" t="s">
-        <v>81</v>
+        <v>339</v>
       </c>
       <c r="D227" t="s">
         <v>191</v>
@@ -4594,13 +4600,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>6044</v>
+        <v>6043</v>
       </c>
       <c r="B228" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C228" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="D228" t="s">
         <v>191</v>
@@ -4608,13 +4614,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>6045</v>
+        <v>6044</v>
       </c>
       <c r="B229" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C229" t="s">
-        <v>51</v>
+        <v>342</v>
       </c>
       <c r="D229" t="s">
         <v>191</v>
@@ -4622,13 +4628,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>6046</v>
+        <v>6045</v>
       </c>
       <c r="B230" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D230" t="s">
         <v>191</v>
@@ -4636,13 +4642,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>6047</v>
+        <v>6046</v>
       </c>
       <c r="B231" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D231" t="s">
         <v>191</v>
@@ -4650,13 +4656,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>6048</v>
+        <v>6047</v>
       </c>
       <c r="B232" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D232" t="s">
         <v>191</v>
@@ -4664,13 +4670,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>6049</v>
+        <v>6048</v>
       </c>
       <c r="B233" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C233" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="D233" t="s">
         <v>191</v>
@@ -4678,13 +4684,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>6050</v>
+        <v>6049</v>
       </c>
       <c r="B234" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C234" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="D234" t="s">
         <v>191</v>
@@ -4692,15 +4698,29 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
+        <v>6050</v>
+      </c>
+      <c r="B235" t="s">
+        <v>349</v>
+      </c>
+      <c r="C235" t="s">
+        <v>309</v>
+      </c>
+      <c r="D235" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236">
         <v>6051</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>350</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>351</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D236" t="s">
         <v>191</v>
       </c>
     </row>
